--- a/adresso_True.xlsx
+++ b/adresso_True.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>speaker</t>
   </si>
@@ -236,9 +236,6 @@
   </si>
   <si>
     <t>adrsdt48</t>
-  </si>
-  <si>
-    <t>[415.82278481]</t>
   </si>
 </sst>
 </file>
@@ -624,13 +621,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>4.283822857366391E+42</v>
+        <v>722.1498309364724</v>
       </c>
       <c r="D2">
-        <v>729.5148851181137</v>
-      </c>
-      <c r="E2" t="s">
-        <v>74</v>
+        <v>769.5847914875789</v>
+      </c>
+      <c r="E2">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -641,13 +638,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>4.283822857366377E+42</v>
+        <v>142.5481928879551</v>
       </c>
       <c r="D3">
         <v>161.9793021760524</v>
       </c>
-      <c r="E3" t="s">
-        <v>74</v>
+      <c r="E3">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -658,13 +655,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>4.283822857366332E+42</v>
+        <v>244.2543865407443</v>
       </c>
       <c r="D4">
-        <v>754.5435653953447</v>
-      </c>
-      <c r="E4" t="s">
-        <v>74</v>
+        <v>769.5847914875789</v>
+      </c>
+      <c r="E4">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -675,13 +672,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>4.283822857366401E+42</v>
+        <v>272.4161243439281</v>
       </c>
       <c r="D5">
-        <v>-260.4719964048805</v>
-      </c>
-      <c r="E5" t="s">
-        <v>74</v>
+        <v>452.1478708983092</v>
+      </c>
+      <c r="E5">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -692,13 +689,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>4.283822857366404E+42</v>
+        <v>276.0432286862947</v>
       </c>
       <c r="D6">
-        <v>-70.58227128516809</v>
-      </c>
-      <c r="E6" t="s">
-        <v>74</v>
+        <v>-85.82221712142113</v>
+      </c>
+      <c r="E6">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -709,13 +706,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>4.283822857366365E+42</v>
+        <v>553.0095763960891</v>
       </c>
       <c r="D7">
-        <v>4.093463312471424</v>
-      </c>
-      <c r="E7" t="s">
-        <v>74</v>
+        <v>805.0112321838592</v>
+      </c>
+      <c r="E7">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -726,13 +723,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>4.28382285736633E+42</v>
+        <v>681.4491648769002</v>
       </c>
       <c r="D8">
-        <v>324.1323258737842</v>
-      </c>
-      <c r="E8" t="s">
-        <v>74</v>
+        <v>769.5847914875789</v>
+      </c>
+      <c r="E8">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -743,13 +740,13 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>4.28382285736636E+42</v>
+        <v>200.5936782634124</v>
       </c>
       <c r="D9">
-        <v>516.1556434105718</v>
-      </c>
-      <c r="E9" t="s">
-        <v>74</v>
+        <v>-55.64712436564023</v>
+      </c>
+      <c r="E9">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -760,13 +757,13 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>4.283822857366366E+42</v>
+        <v>356.5068579634259</v>
       </c>
       <c r="D10">
-        <v>754.5435653953447</v>
-      </c>
-      <c r="E10" t="s">
-        <v>74</v>
+        <v>769.5847914875789</v>
+      </c>
+      <c r="E10">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -777,13 +774,13 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>4.28382285736635E+42</v>
+        <v>358.2363605223612</v>
       </c>
       <c r="D11">
-        <v>-1.240517730217128</v>
-      </c>
-      <c r="E11" t="s">
-        <v>74</v>
+        <v>769.5847914875789</v>
+      </c>
+      <c r="E11">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -794,13 +791,13 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>4.283822857366396E+42</v>
+        <v>674.4435819675817</v>
       </c>
       <c r="D12">
-        <v>754.5435653953447</v>
-      </c>
-      <c r="E12" t="s">
-        <v>74</v>
+        <v>260.1245533615216</v>
+      </c>
+      <c r="E12">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -811,13 +808,13 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>4.283822857366319E+42</v>
+        <v>401.9822851235797</v>
       </c>
       <c r="D13">
-        <v>124.9970336134118</v>
-      </c>
-      <c r="E13" t="s">
-        <v>74</v>
+        <v>78.76919791011103</v>
+      </c>
+      <c r="E13">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -828,13 +825,13 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>4.283822857366306E+42</v>
+        <v>493.3737461433001</v>
       </c>
       <c r="D14">
-        <v>270.7925154468987</v>
-      </c>
-      <c r="E14" t="s">
-        <v>74</v>
+        <v>590.8313780082116</v>
+      </c>
+      <c r="E14">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -845,13 +842,13 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>4.283822857366343E+42</v>
+        <v>342.4739897266419</v>
       </c>
       <c r="D15">
-        <v>782.8546955449992</v>
-      </c>
-      <c r="E15" t="s">
-        <v>74</v>
+        <v>805.0112321838592</v>
+      </c>
+      <c r="E15">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -862,13 +859,13 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>4.283822857366399E+42</v>
+        <v>112.739901301428</v>
       </c>
       <c r="D16">
-        <v>516.1556434105718</v>
-      </c>
-      <c r="E16" t="s">
-        <v>74</v>
+        <v>190.7827998065706</v>
+      </c>
+      <c r="E16">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -879,13 +876,13 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>4.283822857366322E+42</v>
+        <v>535.6632852395014</v>
       </c>
       <c r="D17">
-        <v>516.1556434105718</v>
-      </c>
-      <c r="E17" t="s">
-        <v>74</v>
+        <v>769.5847914875789</v>
+      </c>
+      <c r="E17">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -896,13 +893,13 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>4.283822857366314E+42</v>
+        <v>958.4517679564601</v>
       </c>
       <c r="D18">
-        <v>754.5435653953447</v>
-      </c>
-      <c r="E18" t="s">
-        <v>74</v>
+        <v>805.0112321838592</v>
+      </c>
+      <c r="E18">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -913,13 +910,13 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>4.283822857366299E+42</v>
+        <v>532.9057085233682</v>
       </c>
       <c r="D19">
-        <v>754.5435653953447</v>
-      </c>
-      <c r="E19" t="s">
-        <v>74</v>
+        <v>-55.64712436564023</v>
+      </c>
+      <c r="E19">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -930,13 +927,13 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <v>4.283822857366415E+42</v>
+        <v>-25.63087186719468</v>
       </c>
       <c r="D20">
-        <v>754.5435653953447</v>
-      </c>
-      <c r="E20" t="s">
-        <v>74</v>
+        <v>805.0112321838592</v>
+      </c>
+      <c r="E20">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -947,13 +944,13 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>4.283822857366363E+42</v>
+        <v>253.0406195253309</v>
       </c>
       <c r="D21">
-        <v>825.5265438865074</v>
-      </c>
-      <c r="E21" t="s">
-        <v>74</v>
+        <v>147.3489541732495</v>
+      </c>
+      <c r="E21">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -964,13 +961,13 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>4.28382285736636E+42</v>
+        <v>385.5881992633018</v>
       </c>
       <c r="D22">
-        <v>754.5435653953447</v>
-      </c>
-      <c r="E22" t="s">
-        <v>74</v>
+        <v>769.5847914875789</v>
+      </c>
+      <c r="E22">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -981,13 +978,13 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>4.283822857366365E+42</v>
+        <v>242.6320957011239</v>
       </c>
       <c r="D23">
-        <v>270.7925154468987</v>
-      </c>
-      <c r="E23" t="s">
-        <v>74</v>
+        <v>769.5847914875789</v>
+      </c>
+      <c r="E23">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -998,13 +995,13 @@
         <v>26</v>
       </c>
       <c r="C24">
-        <v>4.283822857366365E+42</v>
+        <v>421.3514838004826</v>
       </c>
       <c r="D24">
-        <v>754.5435653953447</v>
-      </c>
-      <c r="E24" t="s">
-        <v>74</v>
+        <v>190.7827998065706</v>
+      </c>
+      <c r="E24">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1015,13 +1012,13 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <v>4.283822857366303E+42</v>
+        <v>440.9077591909918</v>
       </c>
       <c r="D25">
-        <v>638.8372073924083</v>
-      </c>
-      <c r="E25" t="s">
-        <v>74</v>
+        <v>452.1478708983092</v>
+      </c>
+      <c r="E25">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1032,13 +1029,13 @@
         <v>28</v>
       </c>
       <c r="C26">
-        <v>4.283822857366355E+42</v>
+        <v>54.40623282987583</v>
       </c>
       <c r="D26">
-        <v>638.8372073924083</v>
-      </c>
-      <c r="E26" t="s">
-        <v>74</v>
+        <v>805.0112321838592</v>
+      </c>
+      <c r="E26">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1049,13 +1046,13 @@
         <v>29</v>
       </c>
       <c r="C27">
-        <v>4.283822857366405E+42</v>
+        <v>391.2398625291724</v>
       </c>
       <c r="D27">
         <v>161.9793021760524</v>
       </c>
-      <c r="E27" t="s">
-        <v>74</v>
+      <c r="E27">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1066,13 +1063,13 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>4.283822857366334E+42</v>
+        <v>514.6403134960207</v>
       </c>
       <c r="D28">
-        <v>324.1323258737842</v>
-      </c>
-      <c r="E28" t="s">
-        <v>74</v>
+        <v>622.8352642643428</v>
+      </c>
+      <c r="E28">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1083,13 +1080,13 @@
         <v>31</v>
       </c>
       <c r="C29">
-        <v>4.283822857366292E+42</v>
+        <v>286.1215476732526</v>
       </c>
       <c r="D29">
-        <v>853.2632453084879</v>
-      </c>
-      <c r="E29" t="s">
-        <v>74</v>
+        <v>769.5847914875789</v>
+      </c>
+      <c r="E29">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1100,13 +1097,13 @@
         <v>32</v>
       </c>
       <c r="C30">
-        <v>4.28382285736627E+42</v>
+        <v>620.4575740208892</v>
       </c>
       <c r="D30">
-        <v>782.8546955449992</v>
-      </c>
-      <c r="E30" t="s">
-        <v>74</v>
+        <v>805.0112321838592</v>
+      </c>
+      <c r="E30">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1117,13 +1114,13 @@
         <v>33</v>
       </c>
       <c r="C31">
-        <v>4.283822857366391E+42</v>
+        <v>610.494838588764</v>
       </c>
       <c r="D31">
-        <v>729.5148851181137</v>
-      </c>
-      <c r="E31" t="s">
-        <v>74</v>
+        <v>101.6291166644905</v>
+      </c>
+      <c r="E31">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1134,13 +1131,13 @@
         <v>34</v>
       </c>
       <c r="C32">
-        <v>4.283822857366358E+42</v>
+        <v>514.1425179803657</v>
       </c>
       <c r="D32">
         <v>161.9793021760524</v>
       </c>
-      <c r="E32" t="s">
-        <v>74</v>
+      <c r="E32">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1151,13 +1148,13 @@
         <v>35</v>
       </c>
       <c r="C33">
-        <v>4.283822857366344E+42</v>
+        <v>480.8184250989407</v>
       </c>
       <c r="D33">
-        <v>638.8372073924083</v>
-      </c>
-      <c r="E33" t="s">
-        <v>74</v>
+        <v>452.1478708983092</v>
+      </c>
+      <c r="E33">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1168,13 +1165,13 @@
         <v>36</v>
       </c>
       <c r="C34">
-        <v>4.283822857366384E+42</v>
+        <v>547.9755607596375</v>
       </c>
       <c r="D34">
         <v>161.9793021760524</v>
       </c>
-      <c r="E34" t="s">
-        <v>74</v>
+      <c r="E34">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1185,13 +1182,13 @@
         <v>37</v>
       </c>
       <c r="C35">
-        <v>4.283822857366338E+42</v>
+        <v>86.8628085580704</v>
       </c>
       <c r="D35">
-        <v>754.5435653953447</v>
-      </c>
-      <c r="E35" t="s">
-        <v>74</v>
+        <v>805.0112321838592</v>
+      </c>
+      <c r="E35">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1202,13 +1199,13 @@
         <v>38</v>
       </c>
       <c r="C36">
-        <v>4.283822857366297E+42</v>
+        <v>10.3594059244733</v>
       </c>
       <c r="D36">
-        <v>324.1323258737842</v>
-      </c>
-      <c r="E36" t="s">
-        <v>74</v>
+        <v>89.43715999548816</v>
+      </c>
+      <c r="E36">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1219,13 +1216,13 @@
         <v>39</v>
       </c>
       <c r="C37">
-        <v>4.28382285736636E+42</v>
+        <v>523.0471005655552</v>
       </c>
       <c r="D37">
-        <v>124.9970336134118</v>
-      </c>
-      <c r="E37" t="s">
-        <v>74</v>
+        <v>147.3489541732495</v>
+      </c>
+      <c r="E37">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1236,13 +1233,13 @@
         <v>40</v>
       </c>
       <c r="C38">
-        <v>4.283822857366395E+42</v>
+        <v>665.8559438499892</v>
       </c>
       <c r="D38">
-        <v>729.5148851181137</v>
-      </c>
-      <c r="E38" t="s">
-        <v>74</v>
+        <v>101.6291166644905</v>
+      </c>
+      <c r="E38">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1253,13 +1250,13 @@
         <v>41</v>
       </c>
       <c r="C39">
-        <v>4.283822857366289E+42</v>
+        <v>772.8278054601456</v>
       </c>
       <c r="D39">
-        <v>754.5435653953447</v>
-      </c>
-      <c r="E39" t="s">
-        <v>74</v>
+        <v>805.0112321838592</v>
+      </c>
+      <c r="E39">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1270,13 +1267,13 @@
         <v>42</v>
       </c>
       <c r="C40">
-        <v>4.28382285736634E+42</v>
+        <v>540.5016850438506</v>
       </c>
       <c r="D40">
         <v>161.9793021760524</v>
       </c>
-      <c r="E40" t="s">
-        <v>74</v>
+      <c r="E40">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1287,13 +1284,13 @@
         <v>43</v>
       </c>
       <c r="C41">
-        <v>4.283822857366324E+42</v>
+        <v>317.9738764083492</v>
       </c>
       <c r="D41">
-        <v>754.5435653953447</v>
-      </c>
-      <c r="E41" t="s">
-        <v>74</v>
+        <v>622.8352642643428</v>
+      </c>
+      <c r="E41">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1304,13 +1301,13 @@
         <v>44</v>
       </c>
       <c r="C42">
-        <v>4.283822857366358E+42</v>
+        <v>254.8781325961579</v>
       </c>
       <c r="D42">
-        <v>-577.3104703405802</v>
-      </c>
-      <c r="E42" t="s">
-        <v>74</v>
+        <v>-577.31047034058</v>
+      </c>
+      <c r="E42">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1321,13 +1318,13 @@
         <v>45</v>
       </c>
       <c r="C43">
-        <v>4.283822857366339E+42</v>
+        <v>334.5710547404184</v>
       </c>
       <c r="D43">
-        <v>729.5148851181137</v>
-      </c>
-      <c r="E43" t="s">
-        <v>74</v>
+        <v>590.8313780082116</v>
+      </c>
+      <c r="E43">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1338,13 +1335,13 @@
         <v>46</v>
       </c>
       <c r="C44">
-        <v>4.283822857366326E+42</v>
+        <v>358.2247670784342</v>
       </c>
       <c r="D44">
-        <v>754.5435653953447</v>
-      </c>
-      <c r="E44" t="s">
-        <v>74</v>
+        <v>814.8585818011305</v>
+      </c>
+      <c r="E44">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1355,13 +1352,13 @@
         <v>47</v>
       </c>
       <c r="C45">
-        <v>4.28382285736639E+42</v>
+        <v>730.9351963846111</v>
       </c>
       <c r="D45">
-        <v>516.1556434105718</v>
-      </c>
-      <c r="E45" t="s">
-        <v>74</v>
+        <v>805.0112321838592</v>
+      </c>
+      <c r="E45">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1372,13 +1369,13 @@
         <v>48</v>
       </c>
       <c r="C46">
-        <v>4.283822857366328E+42</v>
+        <v>727.8576662517048</v>
       </c>
       <c r="D46">
-        <v>516.1556434105718</v>
-      </c>
-      <c r="E46" t="s">
-        <v>74</v>
+        <v>769.5847914875789</v>
+      </c>
+      <c r="E46">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1389,13 +1386,13 @@
         <v>49</v>
       </c>
       <c r="C47">
-        <v>4.283822857366259E+42</v>
+        <v>245.2239919385876</v>
       </c>
       <c r="D47">
-        <v>754.5435653953447</v>
-      </c>
-      <c r="E47" t="s">
-        <v>74</v>
+        <v>260.1245533615216</v>
+      </c>
+      <c r="E47">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1406,13 +1403,13 @@
         <v>50</v>
       </c>
       <c r="C48">
-        <v>4.283822857366283E+42</v>
+        <v>622.0367090443561</v>
       </c>
       <c r="D48">
-        <v>754.5435653953447</v>
-      </c>
-      <c r="E48" t="s">
-        <v>74</v>
+        <v>805.0112321838592</v>
+      </c>
+      <c r="E48">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1423,13 +1420,13 @@
         <v>51</v>
       </c>
       <c r="C49">
-        <v>4.283822857366345E+42</v>
+        <v>419.1722349553896</v>
       </c>
       <c r="D49">
-        <v>729.5148851181137</v>
-      </c>
-      <c r="E49" t="s">
-        <v>74</v>
+        <v>101.6291166644905</v>
+      </c>
+      <c r="E49">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1440,13 +1437,13 @@
         <v>52</v>
       </c>
       <c r="C50">
-        <v>4.283822857366322E+42</v>
+        <v>294.2898683154803</v>
       </c>
       <c r="D50">
-        <v>754.5435653953447</v>
-      </c>
-      <c r="E50" t="s">
-        <v>74</v>
+        <v>-85.82221712142113</v>
+      </c>
+      <c r="E50">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1457,13 +1454,13 @@
         <v>53</v>
       </c>
       <c r="C51">
-        <v>4.283822857366374E+42</v>
+        <v>436.7604452040785</v>
       </c>
       <c r="D51">
-        <v>754.5435653953447</v>
-      </c>
-      <c r="E51" t="s">
-        <v>74</v>
+        <v>769.5847914875789</v>
+      </c>
+      <c r="E51">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1474,13 +1471,13 @@
         <v>54</v>
       </c>
       <c r="C52">
-        <v>4.283822857366374E+42</v>
+        <v>748.7612944455099</v>
       </c>
       <c r="D52">
-        <v>324.1323258737842</v>
-      </c>
-      <c r="E52" t="s">
-        <v>74</v>
+        <v>769.5847914875789</v>
+      </c>
+      <c r="E52">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1491,13 +1488,13 @@
         <v>55</v>
       </c>
       <c r="C53">
-        <v>4.283822857366352E+42</v>
+        <v>361.1041934676909</v>
       </c>
       <c r="D53">
-        <v>516.1556434105718</v>
-      </c>
-      <c r="E53" t="s">
-        <v>74</v>
+        <v>805.0112321838592</v>
+      </c>
+      <c r="E53">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1508,13 +1505,13 @@
         <v>56</v>
       </c>
       <c r="C54">
-        <v>4.283822857366361E+42</v>
+        <v>332.2929943465868</v>
       </c>
       <c r="D54">
-        <v>516.1556434105718</v>
-      </c>
-      <c r="E54" t="s">
-        <v>74</v>
+        <v>769.5847914875789</v>
+      </c>
+      <c r="E54">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1525,13 +1522,13 @@
         <v>57</v>
       </c>
       <c r="C55">
-        <v>4.28382285736635E+42</v>
+        <v>290.9502377421935</v>
       </c>
       <c r="D55">
-        <v>754.5435653953447</v>
-      </c>
-      <c r="E55" t="s">
-        <v>74</v>
+        <v>260.1245533615216</v>
+      </c>
+      <c r="E55">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1542,13 +1539,13 @@
         <v>58</v>
       </c>
       <c r="C56">
-        <v>4.283822857366361E+42</v>
+        <v>361.514660390947</v>
       </c>
       <c r="D56">
-        <v>754.5435653953447</v>
-      </c>
-      <c r="E56" t="s">
-        <v>74</v>
+        <v>805.0112321838592</v>
+      </c>
+      <c r="E56">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1559,13 +1556,13 @@
         <v>59</v>
       </c>
       <c r="C57">
-        <v>4.2838228573664E+42</v>
+        <v>338.6357456622259</v>
       </c>
       <c r="D57">
-        <v>825.5265438865074</v>
-      </c>
-      <c r="E57" t="s">
-        <v>74</v>
+        <v>452.1478708983092</v>
+      </c>
+      <c r="E57">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1576,13 +1573,13 @@
         <v>60</v>
       </c>
       <c r="C58">
-        <v>4.283822857366418E+42</v>
+        <v>567.4241011830777</v>
       </c>
       <c r="D58">
-        <v>124.9970336134118</v>
-      </c>
-      <c r="E58" t="s">
-        <v>74</v>
+        <v>805.0112321838592</v>
+      </c>
+      <c r="E58">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1593,13 +1590,13 @@
         <v>61</v>
       </c>
       <c r="C59">
-        <v>4.283822857366384E+42</v>
+        <v>54.44047749947749</v>
       </c>
       <c r="D59">
-        <v>754.5435653953447</v>
-      </c>
-      <c r="E59" t="s">
-        <v>74</v>
+        <v>-85.82221712142113</v>
+      </c>
+      <c r="E59">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1610,13 +1607,13 @@
         <v>62</v>
       </c>
       <c r="C60">
-        <v>4.283822857366348E+42</v>
+        <v>611.9451428370484</v>
       </c>
       <c r="D60">
-        <v>729.5148851181137</v>
-      </c>
-      <c r="E60" t="s">
-        <v>74</v>
+        <v>441.4799088129321</v>
+      </c>
+      <c r="E60">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1627,13 +1624,13 @@
         <v>63</v>
       </c>
       <c r="C61">
-        <v>4.283822857366285E+42</v>
+        <v>56.89987778462434</v>
       </c>
       <c r="D61">
-        <v>270.7925154468987</v>
-      </c>
-      <c r="E61" t="s">
-        <v>74</v>
+        <v>769.5847914875789</v>
+      </c>
+      <c r="E61">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1644,13 +1641,13 @@
         <v>64</v>
       </c>
       <c r="C62">
-        <v>4.283822857366344E+42</v>
+        <v>746.0905919177226</v>
       </c>
       <c r="D62">
-        <v>-1.240517730217128</v>
-      </c>
-      <c r="E62" t="s">
-        <v>74</v>
+        <v>769.5847914875789</v>
+      </c>
+      <c r="E62">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1661,13 +1658,13 @@
         <v>65</v>
       </c>
       <c r="C63">
-        <v>4.283822857366227E+42</v>
+        <v>391.2574484443421</v>
       </c>
       <c r="D63">
-        <v>-70.58227128516809</v>
-      </c>
-      <c r="E63" t="s">
-        <v>74</v>
+        <v>260.1245533615216</v>
+      </c>
+      <c r="E63">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1678,13 +1675,13 @@
         <v>66</v>
       </c>
       <c r="C64">
-        <v>4.283822857366303E+42</v>
+        <v>863.6155538701398</v>
       </c>
       <c r="D64">
-        <v>174.7808566785048</v>
-      </c>
-      <c r="E64" t="s">
-        <v>74</v>
+        <v>-55.64712436564023</v>
+      </c>
+      <c r="E64">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1695,13 +1692,13 @@
         <v>67</v>
       </c>
       <c r="C65">
-        <v>4.283822857366295E+42</v>
+        <v>596.6628841870568</v>
       </c>
       <c r="D65">
-        <v>270.7925154468987</v>
-      </c>
-      <c r="E65" t="s">
-        <v>74</v>
+        <v>814.8585818011305</v>
+      </c>
+      <c r="E65">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1712,13 +1709,13 @@
         <v>68</v>
       </c>
       <c r="C66">
-        <v>4.283822857366254E+42</v>
+        <v>187.4764519529174</v>
       </c>
       <c r="D66">
-        <v>-70.58227128516809</v>
-      </c>
-      <c r="E66" t="s">
-        <v>74</v>
+        <v>101.6291166644905</v>
+      </c>
+      <c r="E66">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1729,13 +1726,13 @@
         <v>69</v>
       </c>
       <c r="C67">
-        <v>4.283822857366318E+42</v>
+        <v>518.2131110744394</v>
       </c>
       <c r="D67">
-        <v>270.7925154468987</v>
-      </c>
-      <c r="E67" t="s">
-        <v>74</v>
+        <v>769.5847914875789</v>
+      </c>
+      <c r="E67">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1746,13 +1743,13 @@
         <v>70</v>
       </c>
       <c r="C68">
-        <v>4.283822857366388E+42</v>
+        <v>508.5168392641323</v>
       </c>
       <c r="D68">
-        <v>729.5148851181137</v>
-      </c>
-      <c r="E68" t="s">
-        <v>74</v>
+        <v>769.5847914875789</v>
+      </c>
+      <c r="E68">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1763,13 +1760,13 @@
         <v>71</v>
       </c>
       <c r="C69">
-        <v>4.283822857366368E+42</v>
+        <v>45.35618448746543</v>
       </c>
       <c r="D69">
-        <v>-1.240517730217128</v>
-      </c>
-      <c r="E69" t="s">
-        <v>74</v>
+        <v>260.1245533615216</v>
+      </c>
+      <c r="E69">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1780,13 +1777,13 @@
         <v>72</v>
       </c>
       <c r="C70">
-        <v>4.283822857366279E+42</v>
+        <v>307.2464167171082</v>
       </c>
       <c r="D70">
-        <v>754.5435653953447</v>
-      </c>
-      <c r="E70" t="s">
-        <v>74</v>
+        <v>-55.64712436564023</v>
+      </c>
+      <c r="E70">
+        <v>415.8227848101265</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1797,13 +1794,13 @@
         <v>73</v>
       </c>
       <c r="C71">
-        <v>4.28382285736643E+42</v>
+        <v>195.1583648690926</v>
       </c>
       <c r="D71">
         <v>161.9793021760524</v>
       </c>
-      <c r="E71" t="s">
-        <v>74</v>
+      <c r="E71">
+        <v>415.8227848101265</v>
       </c>
     </row>
   </sheetData>

--- a/adresso_True.xlsx
+++ b/adresso_True.xlsx
@@ -621,10 +621,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>722.1498309364724</v>
+        <v>671.6600882773695</v>
       </c>
       <c r="D2">
-        <v>769.5847914875789</v>
+        <v>824.7059314184015</v>
       </c>
       <c r="E2">
         <v>415.8227848101265</v>
@@ -638,10 +638,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>142.5481928879551</v>
+        <v>241.813104453222</v>
       </c>
       <c r="D3">
-        <v>161.9793021760524</v>
+        <v>110.7730841662423</v>
       </c>
       <c r="E3">
         <v>415.8227848101265</v>
@@ -655,10 +655,10 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>244.2543865407443</v>
+        <v>266.6677601639852</v>
       </c>
       <c r="D4">
-        <v>769.5847914875789</v>
+        <v>-11.90847981559413</v>
       </c>
       <c r="E4">
         <v>415.8227848101265</v>
@@ -672,10 +672,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>272.4161243439281</v>
+        <v>271.8751614689164</v>
       </c>
       <c r="D5">
-        <v>452.1478708983092</v>
+        <v>-98.70689860116244</v>
       </c>
       <c r="E5">
         <v>415.8227848101265</v>
@@ -689,10 +689,10 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>276.0432286862947</v>
+        <v>377.9321997574473</v>
       </c>
       <c r="D6">
-        <v>-85.82221712142113</v>
+        <v>136.3761931711474</v>
       </c>
       <c r="E6">
         <v>415.8227848101265</v>
@@ -706,10 +706,10 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>553.0095763960891</v>
+        <v>575.4944687348897</v>
       </c>
       <c r="D7">
-        <v>805.0112321838592</v>
+        <v>25.42938748322563</v>
       </c>
       <c r="E7">
         <v>415.8227848101265</v>
@@ -723,10 +723,10 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>681.4491648769002</v>
+        <v>690.7018690190632</v>
       </c>
       <c r="D8">
-        <v>769.5847914875789</v>
+        <v>782.8546955449992</v>
       </c>
       <c r="E8">
         <v>415.8227848101265</v>
@@ -740,10 +740,10 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>200.5936782634124</v>
+        <v>49.74944968040104</v>
       </c>
       <c r="D9">
-        <v>-55.64712436564023</v>
+        <v>-98.70689860116244</v>
       </c>
       <c r="E9">
         <v>415.8227848101265</v>
@@ -757,10 +757,10 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>356.5068579634259</v>
+        <v>412.9740623182878</v>
       </c>
       <c r="D10">
-        <v>769.5847914875789</v>
+        <v>824.7059314184015</v>
       </c>
       <c r="E10">
         <v>415.8227848101265</v>
@@ -774,10 +774,10 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>358.2363605223612</v>
+        <v>290.6417678669075</v>
       </c>
       <c r="D11">
-        <v>769.5847914875789</v>
+        <v>-625.3162997247771</v>
       </c>
       <c r="E11">
         <v>415.8227848101265</v>
@@ -791,10 +791,10 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>674.4435819675817</v>
+        <v>669.0552124088285</v>
       </c>
       <c r="D12">
-        <v>260.1245533615216</v>
+        <v>773.7107280432473</v>
       </c>
       <c r="E12">
         <v>415.8227848101265</v>
@@ -808,10 +808,10 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>401.9822851235797</v>
+        <v>515.8195236661149</v>
       </c>
       <c r="D13">
-        <v>78.76919791011103</v>
+        <v>693.95501150019</v>
       </c>
       <c r="E13">
         <v>415.8227848101265</v>
@@ -825,10 +825,10 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>493.3737461433001</v>
+        <v>484.4192368839809</v>
       </c>
       <c r="D14">
-        <v>590.8313780082116</v>
+        <v>302.79640170303</v>
       </c>
       <c r="E14">
         <v>415.8227848101265</v>
@@ -842,10 +842,10 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>342.4739897266419</v>
+        <v>341.2968747076939</v>
       </c>
       <c r="D15">
-        <v>805.0112321838592</v>
+        <v>773.7107280432473</v>
       </c>
       <c r="E15">
         <v>415.8227848101265</v>
@@ -859,10 +859,10 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>112.739901301428</v>
+        <v>116.7262941530832</v>
       </c>
       <c r="D16">
-        <v>190.7827998065706</v>
+        <v>773.7107280432473</v>
       </c>
       <c r="E16">
         <v>415.8227848101265</v>
@@ -876,10 +876,10 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>535.6632852395014</v>
+        <v>550.9552241222821</v>
       </c>
       <c r="D17">
-        <v>769.5847914875789</v>
+        <v>520.4228282447226</v>
       </c>
       <c r="E17">
         <v>415.8227848101265</v>
@@ -893,10 +893,10 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>958.4517679564601</v>
+        <v>937.3852653376231</v>
       </c>
       <c r="D18">
-        <v>805.0112321838592</v>
+        <v>782.8546955449992</v>
       </c>
       <c r="E18">
         <v>415.8227848101265</v>
@@ -910,10 +910,10 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>532.9057085233682</v>
+        <v>472.0353593312323</v>
       </c>
       <c r="D19">
-        <v>-55.64712436564023</v>
+        <v>-129.2560627547422</v>
       </c>
       <c r="E19">
         <v>415.8227848101265</v>
@@ -927,10 +927,10 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <v>-25.63087186719468</v>
+        <v>57.6621134108142</v>
       </c>
       <c r="D20">
-        <v>805.0112321838592</v>
+        <v>-11.90847981559413</v>
       </c>
       <c r="E20">
         <v>415.8227848101265</v>
@@ -944,10 +944,10 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>253.0406195253309</v>
+        <v>359.3751390314144</v>
       </c>
       <c r="D21">
-        <v>147.3489541732495</v>
+        <v>-11.90847981559413</v>
       </c>
       <c r="E21">
         <v>415.8227848101265</v>
@@ -961,10 +961,10 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>385.5881992633018</v>
+        <v>120.5966930176395</v>
       </c>
       <c r="D22">
-        <v>769.5847914875789</v>
+        <v>782.8546955449992</v>
       </c>
       <c r="E22">
         <v>415.8227848101265</v>
@@ -978,10 +978,10 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>242.6320957011239</v>
+        <v>373.9261452462205</v>
       </c>
       <c r="D23">
-        <v>769.5847914875789</v>
+        <v>773.7107280432473</v>
       </c>
       <c r="E23">
         <v>415.8227848101265</v>
@@ -995,10 +995,10 @@
         <v>26</v>
       </c>
       <c r="C24">
-        <v>421.3514838004826</v>
+        <v>330.1931168576221</v>
       </c>
       <c r="D24">
-        <v>190.7827998065706</v>
+        <v>-11.90847981559413</v>
       </c>
       <c r="E24">
         <v>415.8227848101265</v>
@@ -1012,10 +1012,10 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <v>440.9077591909918</v>
+        <v>463.804099587642</v>
       </c>
       <c r="D25">
-        <v>452.1478708983092</v>
+        <v>743.7388345652832</v>
       </c>
       <c r="E25">
         <v>415.8227848101265</v>
@@ -1029,10 +1029,10 @@
         <v>28</v>
       </c>
       <c r="C26">
-        <v>54.40623282987583</v>
+        <v>134.6662776081809</v>
       </c>
       <c r="D26">
-        <v>805.0112321838592</v>
+        <v>302.79640170303</v>
       </c>
       <c r="E26">
         <v>415.8227848101265</v>
@@ -1046,10 +1046,10 @@
         <v>29</v>
       </c>
       <c r="C27">
-        <v>391.2398625291724</v>
+        <v>327.1451812766434</v>
       </c>
       <c r="D27">
-        <v>161.9793021760524</v>
+        <v>-129.2560627547422</v>
       </c>
       <c r="E27">
         <v>415.8227848101265</v>
@@ -1063,10 +1063,10 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>514.6403134960207</v>
+        <v>622.4398090857015</v>
       </c>
       <c r="D28">
-        <v>622.8352642643428</v>
+        <v>302.79640170303</v>
       </c>
       <c r="E28">
         <v>415.8227848101265</v>
@@ -1080,10 +1080,10 @@
         <v>31</v>
       </c>
       <c r="C29">
-        <v>286.1215476732526</v>
+        <v>216.7852470954371</v>
       </c>
       <c r="D29">
-        <v>769.5847914875789</v>
+        <v>-625.3162997247771</v>
       </c>
       <c r="E29">
         <v>415.8227848101265</v>
@@ -1097,10 +1097,10 @@
         <v>32</v>
       </c>
       <c r="C30">
-        <v>620.4575740208892</v>
+        <v>659.3664341360096</v>
       </c>
       <c r="D30">
-        <v>805.0112321838592</v>
+        <v>824.7059314184015</v>
       </c>
       <c r="E30">
         <v>415.8227848101265</v>
@@ -1114,10 +1114,10 @@
         <v>33</v>
       </c>
       <c r="C31">
-        <v>610.494838588764</v>
+        <v>498.5616808890492</v>
       </c>
       <c r="D31">
-        <v>101.6291166644905</v>
+        <v>782.8546955449992</v>
       </c>
       <c r="E31">
         <v>415.8227848101265</v>
@@ -1131,10 +1131,10 @@
         <v>34</v>
       </c>
       <c r="C32">
-        <v>514.1425179803657</v>
+        <v>452.3416629257541</v>
       </c>
       <c r="D32">
-        <v>161.9793021760524</v>
+        <v>110.7730841662424</v>
       </c>
       <c r="E32">
         <v>415.8227848101265</v>
@@ -1148,10 +1148,10 @@
         <v>35</v>
       </c>
       <c r="C33">
-        <v>480.8184250989407</v>
+        <v>416.8187653760555</v>
       </c>
       <c r="D33">
-        <v>452.1478708983092</v>
+        <v>824.7059314184015</v>
       </c>
       <c r="E33">
         <v>415.8227848101265</v>
@@ -1165,10 +1165,10 @@
         <v>36</v>
       </c>
       <c r="C34">
-        <v>547.9755607596375</v>
+        <v>509.4638859955967</v>
       </c>
       <c r="D34">
-        <v>161.9793021760524</v>
+        <v>824.7059314184015</v>
       </c>
       <c r="E34">
         <v>415.8227848101265</v>
@@ -1182,10 +1182,10 @@
         <v>37</v>
       </c>
       <c r="C35">
-        <v>86.8628085580704</v>
+        <v>85.34021436212458</v>
       </c>
       <c r="D35">
-        <v>805.0112321838592</v>
+        <v>-625.3162997247771</v>
       </c>
       <c r="E35">
         <v>415.8227848101265</v>
@@ -1199,10 +1199,10 @@
         <v>38</v>
       </c>
       <c r="C36">
-        <v>10.3594059244733</v>
+        <v>82.942905613177</v>
       </c>
       <c r="D36">
-        <v>89.43715999548816</v>
+        <v>-11.90847981559413</v>
       </c>
       <c r="E36">
         <v>415.8227848101265</v>
@@ -1216,10 +1216,10 @@
         <v>39</v>
       </c>
       <c r="C37">
-        <v>523.0471005655552</v>
+        <v>567.7534108253889</v>
       </c>
       <c r="D37">
-        <v>147.3489541732495</v>
+        <v>782.8546955449992</v>
       </c>
       <c r="E37">
         <v>415.8227848101265</v>
@@ -1233,10 +1233,10 @@
         <v>40</v>
       </c>
       <c r="C38">
-        <v>665.8559438499892</v>
+        <v>529.6232219979123</v>
       </c>
       <c r="D38">
-        <v>101.6291166644905</v>
+        <v>520.4228282447226</v>
       </c>
       <c r="E38">
         <v>415.8227848101265</v>
@@ -1250,10 +1250,10 @@
         <v>41</v>
       </c>
       <c r="C39">
-        <v>772.8278054601456</v>
+        <v>726.9959758417</v>
       </c>
       <c r="D39">
-        <v>805.0112321838592</v>
+        <v>702.8449799046709</v>
       </c>
       <c r="E39">
         <v>415.8227848101265</v>
@@ -1267,10 +1267,10 @@
         <v>42</v>
       </c>
       <c r="C40">
-        <v>540.5016850438506</v>
+        <v>468.5865344344837</v>
       </c>
       <c r="D40">
-        <v>161.9793021760524</v>
+        <v>110.7730841662424</v>
       </c>
       <c r="E40">
         <v>415.8227848101265</v>
@@ -1284,10 +1284,10 @@
         <v>43</v>
       </c>
       <c r="C41">
-        <v>317.9738764083492</v>
+        <v>314.6779936940829</v>
       </c>
       <c r="D41">
-        <v>622.8352642643428</v>
+        <v>136.3761931711474</v>
       </c>
       <c r="E41">
         <v>415.8227848101265</v>
@@ -1301,10 +1301,10 @@
         <v>44</v>
       </c>
       <c r="C42">
-        <v>254.8781325961579</v>
+        <v>-124.2446808111768</v>
       </c>
       <c r="D42">
-        <v>-577.31047034058</v>
+        <v>-577.3104703405802</v>
       </c>
       <c r="E42">
         <v>415.8227848101265</v>
@@ -1318,10 +1318,10 @@
         <v>45</v>
       </c>
       <c r="C43">
-        <v>334.5710547404184</v>
+        <v>398.1426986080666</v>
       </c>
       <c r="D43">
-        <v>590.8313780082116</v>
+        <v>782.8546955449992</v>
       </c>
       <c r="E43">
         <v>415.8227848101265</v>
@@ -1335,10 +1335,10 @@
         <v>46</v>
       </c>
       <c r="C44">
-        <v>358.2247670784342</v>
+        <v>322.8974710716063</v>
       </c>
       <c r="D44">
-        <v>814.8585818011305</v>
+        <v>773.7107280432473</v>
       </c>
       <c r="E44">
         <v>415.8227848101265</v>
@@ -1352,10 +1352,10 @@
         <v>47</v>
       </c>
       <c r="C45">
-        <v>730.9351963846111</v>
+        <v>848.9848684317249</v>
       </c>
       <c r="D45">
-        <v>805.0112321838592</v>
+        <v>782.8546955449992</v>
       </c>
       <c r="E45">
         <v>415.8227848101265</v>
@@ -1369,10 +1369,10 @@
         <v>48</v>
       </c>
       <c r="C46">
-        <v>727.8576662517048</v>
+        <v>709.5319716544446</v>
       </c>
       <c r="D46">
-        <v>769.5847914875789</v>
+        <v>782.8546955449992</v>
       </c>
       <c r="E46">
         <v>415.8227848101265</v>
@@ -1386,10 +1386,10 @@
         <v>49</v>
       </c>
       <c r="C47">
-        <v>245.2239919385876</v>
+        <v>261.2017101165873</v>
       </c>
       <c r="D47">
-        <v>260.1245533615216</v>
+        <v>302.79640170303</v>
       </c>
       <c r="E47">
         <v>415.8227848101265</v>
@@ -1403,10 +1403,10 @@
         <v>50</v>
       </c>
       <c r="C48">
-        <v>622.0367090443561</v>
+        <v>743.5127353353807</v>
       </c>
       <c r="D48">
-        <v>805.0112321838592</v>
+        <v>345.4682500445383</v>
       </c>
       <c r="E48">
         <v>415.8227848101265</v>
@@ -1420,10 +1420,10 @@
         <v>51</v>
       </c>
       <c r="C49">
-        <v>419.1722349553896</v>
+        <v>239.4458376799539</v>
       </c>
       <c r="D49">
-        <v>101.6291166644905</v>
+        <v>-11.90847981559413</v>
       </c>
       <c r="E49">
         <v>415.8227848101265</v>
@@ -1437,10 +1437,10 @@
         <v>52</v>
       </c>
       <c r="C50">
-        <v>294.2898683154803</v>
+        <v>358.0735084734831</v>
       </c>
       <c r="D50">
-        <v>-85.82221712142113</v>
+        <v>302.79640170303</v>
       </c>
       <c r="E50">
         <v>415.8227848101265</v>
@@ -1454,10 +1454,10 @@
         <v>53</v>
       </c>
       <c r="C51">
-        <v>436.7604452040785</v>
+        <v>457.5845999048642</v>
       </c>
       <c r="D51">
-        <v>769.5847914875789</v>
+        <v>-98.70689860116244</v>
       </c>
       <c r="E51">
         <v>415.8227848101265</v>
@@ -1471,10 +1471,10 @@
         <v>54</v>
       </c>
       <c r="C52">
-        <v>748.7612944455099</v>
+        <v>809.4448857620646</v>
       </c>
       <c r="D52">
-        <v>769.5847914875789</v>
+        <v>782.8546955449992</v>
       </c>
       <c r="E52">
         <v>415.8227848101265</v>
@@ -1488,10 +1488,10 @@
         <v>55</v>
       </c>
       <c r="C53">
-        <v>361.1041934676909</v>
+        <v>552.9346769345844</v>
       </c>
       <c r="D53">
-        <v>805.0112321838592</v>
+        <v>743.7388345652832</v>
       </c>
       <c r="E53">
         <v>415.8227848101265</v>
@@ -1505,10 +1505,10 @@
         <v>56</v>
       </c>
       <c r="C54">
-        <v>332.2929943465868</v>
+        <v>378.3978961396531</v>
       </c>
       <c r="D54">
-        <v>769.5847914875789</v>
+        <v>693.95501150019</v>
       </c>
       <c r="E54">
         <v>415.8227848101265</v>
@@ -1522,10 +1522,10 @@
         <v>57</v>
       </c>
       <c r="C55">
-        <v>290.9502377421935</v>
+        <v>342.0914007400721</v>
       </c>
       <c r="D55">
-        <v>260.1245533615216</v>
+        <v>-11.90847981559413</v>
       </c>
       <c r="E55">
         <v>415.8227848101265</v>
@@ -1539,10 +1539,10 @@
         <v>58</v>
       </c>
       <c r="C56">
-        <v>361.514660390947</v>
+        <v>355.0406568462288</v>
       </c>
       <c r="D56">
-        <v>805.0112321838592</v>
+        <v>782.8546955449992</v>
       </c>
       <c r="E56">
         <v>415.8227848101265</v>
@@ -1556,10 +1556,10 @@
         <v>59</v>
       </c>
       <c r="C57">
-        <v>338.6357456622259</v>
+        <v>432.5059092223445</v>
       </c>
       <c r="D57">
-        <v>452.1478708983092</v>
+        <v>743.7388345652832</v>
       </c>
       <c r="E57">
         <v>415.8227848101265</v>
@@ -1573,10 +1573,10 @@
         <v>60</v>
       </c>
       <c r="C58">
-        <v>567.4241011830777</v>
+        <v>394.7522673764636</v>
       </c>
       <c r="D58">
-        <v>805.0112321838592</v>
+        <v>-129.2560627547422</v>
       </c>
       <c r="E58">
         <v>415.8227848101265</v>
@@ -1590,10 +1590,10 @@
         <v>61</v>
       </c>
       <c r="C59">
-        <v>54.44047749947749</v>
+        <v>75.82687623065803</v>
       </c>
       <c r="D59">
-        <v>-85.82221712142113</v>
+        <v>782.8546955449992</v>
       </c>
       <c r="E59">
         <v>415.8227848101265</v>
@@ -1607,10 +1607,10 @@
         <v>62</v>
       </c>
       <c r="C60">
-        <v>611.9451428370484</v>
+        <v>629.0469875702842</v>
       </c>
       <c r="D60">
-        <v>441.4799088129321</v>
+        <v>-98.70689860116244</v>
       </c>
       <c r="E60">
         <v>415.8227848101265</v>
@@ -1624,10 +1624,10 @@
         <v>63</v>
       </c>
       <c r="C61">
-        <v>56.89987778462434</v>
+        <v>121.4401489715508</v>
       </c>
       <c r="D61">
-        <v>769.5847914875789</v>
+        <v>693.95501150019</v>
       </c>
       <c r="E61">
         <v>415.8227848101265</v>
@@ -1641,10 +1641,10 @@
         <v>64</v>
       </c>
       <c r="C62">
-        <v>746.0905919177226</v>
+        <v>676.5453941564485</v>
       </c>
       <c r="D62">
-        <v>769.5847914875789</v>
+        <v>302.79640170303</v>
       </c>
       <c r="E62">
         <v>415.8227848101265</v>
@@ -1658,10 +1658,10 @@
         <v>65</v>
       </c>
       <c r="C63">
-        <v>391.2574484443421</v>
+        <v>617.7053963970295</v>
       </c>
       <c r="D63">
-        <v>260.1245533615216</v>
+        <v>-625.3162997247771</v>
       </c>
       <c r="E63">
         <v>415.8227848101265</v>
@@ -1675,10 +1675,10 @@
         <v>66</v>
       </c>
       <c r="C64">
-        <v>863.6155538701398</v>
+        <v>883.1973229543075</v>
       </c>
       <c r="D64">
-        <v>-55.64712436564023</v>
+        <v>782.8546955449992</v>
       </c>
       <c r="E64">
         <v>415.8227848101265</v>
@@ -1692,10 +1692,10 @@
         <v>67</v>
       </c>
       <c r="C65">
-        <v>596.6628841870568</v>
+        <v>559.2840559774419</v>
       </c>
       <c r="D65">
-        <v>814.8585818011305</v>
+        <v>782.8546955449992</v>
       </c>
       <c r="E65">
         <v>415.8227848101265</v>
@@ -1709,10 +1709,10 @@
         <v>68</v>
       </c>
       <c r="C66">
-        <v>187.4764519529174</v>
+        <v>111.5243250804958</v>
       </c>
       <c r="D66">
-        <v>101.6291166644905</v>
+        <v>-98.70689860116244</v>
       </c>
       <c r="E66">
         <v>415.8227848101265</v>
@@ -1726,10 +1726,10 @@
         <v>69</v>
       </c>
       <c r="C67">
-        <v>518.2131110744394</v>
+        <v>514.8573984580061</v>
       </c>
       <c r="D67">
-        <v>769.5847914875789</v>
+        <v>345.4682500445383</v>
       </c>
       <c r="E67">
         <v>415.8227848101265</v>
@@ -1743,10 +1743,10 @@
         <v>70</v>
       </c>
       <c r="C68">
-        <v>508.5168392641323</v>
+        <v>359.4085272164039</v>
       </c>
       <c r="D68">
-        <v>769.5847914875789</v>
+        <v>782.8546955449992</v>
       </c>
       <c r="E68">
         <v>415.8227848101265</v>
@@ -1760,10 +1760,10 @@
         <v>71</v>
       </c>
       <c r="C69">
-        <v>45.35618448746543</v>
+        <v>232.3975842245915</v>
       </c>
       <c r="D69">
-        <v>260.1245533615216</v>
+        <v>345.4682500445383</v>
       </c>
       <c r="E69">
         <v>415.8227848101265</v>
@@ -1777,10 +1777,10 @@
         <v>72</v>
       </c>
       <c r="C70">
-        <v>307.2464167171082</v>
+        <v>324.6560098759213</v>
       </c>
       <c r="D70">
-        <v>-55.64712436564023</v>
+        <v>302.79640170303</v>
       </c>
       <c r="E70">
         <v>415.8227848101265</v>
@@ -1794,10 +1794,10 @@
         <v>73</v>
       </c>
       <c r="C71">
-        <v>195.1583648690926</v>
+        <v>479.1504494261798</v>
       </c>
       <c r="D71">
-        <v>161.9793021760524</v>
+        <v>110.7730841662424</v>
       </c>
       <c r="E71">
         <v>415.8227848101265</v>

--- a/adresso_True.xlsx
+++ b/adresso_True.xlsx
@@ -621,13 +621,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>671.6600882773695</v>
+        <v>21.74894897842811</v>
       </c>
       <c r="D2">
-        <v>824.7059314184015</v>
+        <v>-3.77513732088922</v>
       </c>
       <c r="E2">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -638,13 +638,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>241.813104453222</v>
+        <v>6.88474892716668</v>
       </c>
       <c r="D3">
-        <v>110.7730841662423</v>
+        <v>-13.68110211445366</v>
       </c>
       <c r="E3">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -655,13 +655,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>266.6677601639852</v>
+        <v>8.496141136153311</v>
       </c>
       <c r="D4">
-        <v>-11.90847981559413</v>
+        <v>15.01688819873658</v>
       </c>
       <c r="E4">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -672,13 +672,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>271.8751614689164</v>
+        <v>11.72301999172652</v>
       </c>
       <c r="D5">
-        <v>-98.70689860116244</v>
+        <v>-5.108632581561353</v>
       </c>
       <c r="E5">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -689,13 +689,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>377.9321997574473</v>
+        <v>10.73092572769902</v>
       </c>
       <c r="D6">
-        <v>136.3761931711474</v>
+        <v>26.84191386414303</v>
       </c>
       <c r="E6">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -706,13 +706,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>575.4944687348897</v>
+        <v>16.74167174908338</v>
       </c>
       <c r="D7">
-        <v>25.42938748322563</v>
+        <v>25.88179727645909</v>
       </c>
       <c r="E7">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -723,13 +723,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>690.7018690190632</v>
+        <v>23.71535661676596</v>
       </c>
       <c r="D8">
-        <v>782.8546955449992</v>
+        <v>25.6558874911217</v>
       </c>
       <c r="E8">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -740,13 +740,13 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>49.74944968040104</v>
+        <v>3.757674662072313</v>
       </c>
       <c r="D9">
-        <v>-98.70689860116244</v>
+        <v>15.01688819873658</v>
       </c>
       <c r="E9">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -757,13 +757,13 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>412.9740623182878</v>
+        <v>13.90776986019797</v>
       </c>
       <c r="D10">
-        <v>824.7059314184015</v>
+        <v>25.88179727645909</v>
       </c>
       <c r="E10">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -774,13 +774,13 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>290.6417678669075</v>
+        <v>8.10553408320712</v>
       </c>
       <c r="D11">
-        <v>-625.3162997247771</v>
+        <v>25.6558874911217</v>
       </c>
       <c r="E11">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -791,13 +791,13 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>669.0552124088285</v>
+        <v>25.62854818771257</v>
       </c>
       <c r="D12">
-        <v>773.7107280432473</v>
+        <v>25.6558874911217</v>
       </c>
       <c r="E12">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -808,13 +808,13 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>515.8195236661149</v>
+        <v>13.96685457218259</v>
       </c>
       <c r="D13">
-        <v>693.95501150019</v>
+        <v>23.60596536491198</v>
       </c>
       <c r="E13">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -825,13 +825,13 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>484.4192368839809</v>
+        <v>14.84666259159523</v>
       </c>
       <c r="D14">
-        <v>302.79640170303</v>
+        <v>-3.77513732088922</v>
       </c>
       <c r="E14">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -842,13 +842,13 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>341.2968747076939</v>
+        <v>8.356825157121516</v>
       </c>
       <c r="D15">
-        <v>773.7107280432473</v>
+        <v>0.8476462494408527</v>
       </c>
       <c r="E15">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -859,13 +859,13 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>116.7262941530832</v>
+        <v>10.3891693243574</v>
       </c>
       <c r="D16">
-        <v>773.7107280432473</v>
+        <v>-0.1480302118610083</v>
       </c>
       <c r="E16">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -876,13 +876,13 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>550.9552241222821</v>
+        <v>19.00871421548122</v>
       </c>
       <c r="D17">
-        <v>520.4228282447226</v>
+        <v>15.42719443278954</v>
       </c>
       <c r="E17">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -893,13 +893,13 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>937.3852653376231</v>
+        <v>29.51672583901409</v>
       </c>
       <c r="D18">
-        <v>782.8546955449992</v>
+        <v>25.6558874911217</v>
       </c>
       <c r="E18">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -910,13 +910,13 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>472.0353593312323</v>
+        <v>18.36490609525237</v>
       </c>
       <c r="D19">
-        <v>-129.2560627547422</v>
+        <v>26.84191386414303</v>
       </c>
       <c r="E19">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -927,13 +927,13 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <v>57.6621134108142</v>
+        <v>3.454357206791773</v>
       </c>
       <c r="D20">
-        <v>-11.90847981559413</v>
+        <v>25.88179727645909</v>
       </c>
       <c r="E20">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -944,13 +944,13 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>359.3751390314144</v>
+        <v>9.049686344191342</v>
       </c>
       <c r="D21">
-        <v>-11.90847981559413</v>
+        <v>25.6558874911217</v>
       </c>
       <c r="E21">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -961,13 +961,13 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>120.5966930176395</v>
+        <v>12.54969832315814</v>
       </c>
       <c r="D22">
-        <v>782.8546955449992</v>
+        <v>18.98318179458191</v>
       </c>
       <c r="E22">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -978,13 +978,13 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>373.9261452462205</v>
+        <v>12.17186936446734</v>
       </c>
       <c r="D23">
-        <v>773.7107280432473</v>
+        <v>-0.1480302118610083</v>
       </c>
       <c r="E23">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -995,13 +995,13 @@
         <v>26</v>
       </c>
       <c r="C24">
-        <v>330.1931168576221</v>
+        <v>9.758869362811708</v>
       </c>
       <c r="D24">
-        <v>-11.90847981559413</v>
+        <v>0.8476462494408527</v>
       </c>
       <c r="E24">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1012,13 +1012,13 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <v>463.804099587642</v>
+        <v>11.31967851434878</v>
       </c>
       <c r="D25">
-        <v>743.7388345652832</v>
+        <v>15.42719443278954</v>
       </c>
       <c r="E25">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1029,13 +1029,13 @@
         <v>28</v>
       </c>
       <c r="C26">
-        <v>134.6662776081809</v>
+        <v>6.208207504932364</v>
       </c>
       <c r="D26">
-        <v>302.79640170303</v>
+        <v>26.84191386414303</v>
       </c>
       <c r="E26">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1046,13 +1046,13 @@
         <v>29</v>
       </c>
       <c r="C27">
-        <v>327.1451812766434</v>
+        <v>11.81615576348764</v>
       </c>
       <c r="D27">
-        <v>-129.2560627547422</v>
+        <v>-13.68110211445366</v>
       </c>
       <c r="E27">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1063,13 +1063,13 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>622.4398090857015</v>
+        <v>22.17181962574078</v>
       </c>
       <c r="D28">
-        <v>302.79640170303</v>
+        <v>18.98318179458191</v>
       </c>
       <c r="E28">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1080,13 +1080,13 @@
         <v>31</v>
       </c>
       <c r="C29">
-        <v>216.7852470954371</v>
+        <v>13.97220526414957</v>
       </c>
       <c r="D29">
-        <v>-625.3162997247771</v>
+        <v>15.01688819873658</v>
       </c>
       <c r="E29">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1097,13 +1097,13 @@
         <v>32</v>
       </c>
       <c r="C30">
-        <v>659.3664341360096</v>
+        <v>21.1052214733927</v>
       </c>
       <c r="D30">
-        <v>824.7059314184015</v>
+        <v>26.84191386414303</v>
       </c>
       <c r="E30">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1114,13 +1114,13 @@
         <v>33</v>
       </c>
       <c r="C31">
-        <v>498.5616808890492</v>
+        <v>17.79229482197492</v>
       </c>
       <c r="D31">
-        <v>782.8546955449992</v>
+        <v>25.6558874911217</v>
       </c>
       <c r="E31">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1131,13 +1131,13 @@
         <v>34</v>
       </c>
       <c r="C32">
-        <v>452.3416629257541</v>
+        <v>13.44232306335053</v>
       </c>
       <c r="D32">
-        <v>110.7730841662424</v>
+        <v>-13.68110211445366</v>
       </c>
       <c r="E32">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1148,13 +1148,13 @@
         <v>35</v>
       </c>
       <c r="C33">
-        <v>416.8187653760555</v>
+        <v>14.19438254442271</v>
       </c>
       <c r="D33">
-        <v>824.7059314184015</v>
+        <v>3.692436138874744</v>
       </c>
       <c r="E33">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1165,13 +1165,13 @@
         <v>36</v>
       </c>
       <c r="C34">
-        <v>509.4638859955967</v>
+        <v>21.52717785835192</v>
       </c>
       <c r="D34">
-        <v>824.7059314184015</v>
+        <v>11.16000959863871</v>
       </c>
       <c r="E34">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1182,13 +1182,13 @@
         <v>37</v>
       </c>
       <c r="C35">
-        <v>85.34021436212458</v>
+        <v>2.263660412514767</v>
       </c>
       <c r="D35">
-        <v>-625.3162997247771</v>
+        <v>25.6558874911217</v>
       </c>
       <c r="E35">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1199,13 +1199,13 @@
         <v>38</v>
       </c>
       <c r="C36">
-        <v>82.942905613177</v>
+        <v>-5.249088338932767</v>
       </c>
       <c r="D36">
-        <v>-11.90847981559413</v>
+        <v>-3.77513732088922</v>
       </c>
       <c r="E36">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1216,13 +1216,13 @@
         <v>39</v>
       </c>
       <c r="C37">
-        <v>567.7534108253889</v>
+        <v>17.66838685446252</v>
       </c>
       <c r="D37">
-        <v>782.8546955449992</v>
+        <v>29.29554514377976</v>
       </c>
       <c r="E37">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1233,13 +1233,13 @@
         <v>40</v>
       </c>
       <c r="C38">
-        <v>529.6232219979123</v>
+        <v>18.68971977923614</v>
       </c>
       <c r="D38">
-        <v>520.4228282447226</v>
+        <v>15.01688819873658</v>
       </c>
       <c r="E38">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1250,13 +1250,13 @@
         <v>41</v>
       </c>
       <c r="C39">
-        <v>726.9959758417</v>
+        <v>24.77211534334371</v>
       </c>
       <c r="D39">
-        <v>702.8449799046709</v>
+        <v>-3.77513732088922</v>
       </c>
       <c r="E39">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1267,13 +1267,13 @@
         <v>42</v>
       </c>
       <c r="C40">
-        <v>468.5865344344837</v>
+        <v>16.37630118460945</v>
       </c>
       <c r="D40">
-        <v>110.7730841662424</v>
+        <v>-13.68110211445366</v>
       </c>
       <c r="E40">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1284,13 +1284,13 @@
         <v>43</v>
       </c>
       <c r="C41">
-        <v>314.6779936940829</v>
+        <v>9.043968336000125</v>
       </c>
       <c r="D41">
-        <v>136.3761931711474</v>
+        <v>25.88179727645909</v>
       </c>
       <c r="E41">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1301,13 +1301,13 @@
         <v>44</v>
       </c>
       <c r="C42">
-        <v>-124.2446808111768</v>
+        <v>-8.444467130364918</v>
       </c>
       <c r="D42">
-        <v>-577.3104703405802</v>
+        <v>11.16000959863871</v>
       </c>
       <c r="E42">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1318,13 +1318,13 @@
         <v>45</v>
       </c>
       <c r="C43">
-        <v>398.1426986080666</v>
+        <v>10.98944998469823</v>
       </c>
       <c r="D43">
-        <v>782.8546955449992</v>
+        <v>-13.68110211445366</v>
       </c>
       <c r="E43">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1335,13 +1335,13 @@
         <v>46</v>
       </c>
       <c r="C44">
-        <v>322.8974710716063</v>
+        <v>12.49865023138316</v>
       </c>
       <c r="D44">
-        <v>773.7107280432473</v>
+        <v>25.6558874911217</v>
       </c>
       <c r="E44">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1352,13 +1352,13 @@
         <v>47</v>
       </c>
       <c r="C45">
-        <v>848.9848684317249</v>
+        <v>26.50660912891038</v>
       </c>
       <c r="D45">
-        <v>782.8546955449992</v>
+        <v>26.84191386414303</v>
       </c>
       <c r="E45">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1369,13 +1369,13 @@
         <v>48</v>
       </c>
       <c r="C46">
-        <v>709.5319716544446</v>
+        <v>19.71777876282827</v>
       </c>
       <c r="D46">
-        <v>782.8546955449992</v>
+        <v>26.84191386414303</v>
       </c>
       <c r="E46">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1386,13 +1386,13 @@
         <v>49</v>
       </c>
       <c r="C47">
-        <v>261.2017101165873</v>
+        <v>8.130234035396423</v>
       </c>
       <c r="D47">
-        <v>302.79640170303</v>
+        <v>18.98318179458191</v>
       </c>
       <c r="E47">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1403,13 +1403,13 @@
         <v>50</v>
       </c>
       <c r="C48">
-        <v>743.5127353353807</v>
+        <v>23.57967946256989</v>
       </c>
       <c r="D48">
-        <v>345.4682500445383</v>
+        <v>25.6558874911217</v>
       </c>
       <c r="E48">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1420,13 +1420,13 @@
         <v>51</v>
       </c>
       <c r="C49">
-        <v>239.4458376799539</v>
+        <v>8.003251929130467</v>
       </c>
       <c r="D49">
-        <v>-11.90847981559413</v>
+        <v>3.692436138874744</v>
       </c>
       <c r="E49">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1437,13 +1437,13 @@
         <v>52</v>
       </c>
       <c r="C50">
-        <v>358.0735084734831</v>
+        <v>12.10102796341123</v>
       </c>
       <c r="D50">
-        <v>302.79640170303</v>
+        <v>-0.1480302118610083</v>
       </c>
       <c r="E50">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1454,13 +1454,13 @@
         <v>53</v>
       </c>
       <c r="C51">
-        <v>457.5845999048642</v>
+        <v>10.97147942111816</v>
       </c>
       <c r="D51">
-        <v>-98.70689860116244</v>
+        <v>3.692436138874744</v>
       </c>
       <c r="E51">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1471,13 +1471,13 @@
         <v>54</v>
       </c>
       <c r="C52">
-        <v>809.4448857620646</v>
+        <v>23.28900123720851</v>
       </c>
       <c r="D52">
-        <v>782.8546955449992</v>
+        <v>25.6558874911217</v>
       </c>
       <c r="E52">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1488,13 +1488,13 @@
         <v>55</v>
       </c>
       <c r="C53">
-        <v>552.9346769345844</v>
+        <v>15.44476359993828</v>
       </c>
       <c r="D53">
-        <v>743.7388345652832</v>
+        <v>28.58434767142129</v>
       </c>
       <c r="E53">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1505,13 +1505,13 @@
         <v>56</v>
       </c>
       <c r="C54">
-        <v>378.3978961396531</v>
+        <v>9.83494339539558</v>
       </c>
       <c r="D54">
-        <v>693.95501150019</v>
+        <v>15.01688819873658</v>
       </c>
       <c r="E54">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1522,13 +1522,13 @@
         <v>57</v>
       </c>
       <c r="C55">
-        <v>342.0914007400721</v>
+        <v>11.10887884251262</v>
       </c>
       <c r="D55">
-        <v>-11.90847981559413</v>
+        <v>3.692436138874744</v>
       </c>
       <c r="E55">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1539,13 +1539,13 @@
         <v>58</v>
       </c>
       <c r="C56">
-        <v>355.0406568462288</v>
+        <v>10.8609135119548</v>
       </c>
       <c r="D56">
-        <v>782.8546955449992</v>
+        <v>29.29554514377976</v>
       </c>
       <c r="E56">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1556,13 +1556,13 @@
         <v>59</v>
       </c>
       <c r="C57">
-        <v>432.5059092223445</v>
+        <v>11.48720712853293</v>
       </c>
       <c r="D57">
-        <v>743.7388345652832</v>
+        <v>15.42719443278954</v>
       </c>
       <c r="E57">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1573,13 +1573,13 @@
         <v>60</v>
       </c>
       <c r="C58">
-        <v>394.7522673764636</v>
+        <v>13.42050761593462</v>
       </c>
       <c r="D58">
-        <v>-129.2560627547422</v>
+        <v>26.84191386414303</v>
       </c>
       <c r="E58">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1590,13 +1590,13 @@
         <v>61</v>
       </c>
       <c r="C59">
-        <v>75.82687623065803</v>
+        <v>4.050990610944965</v>
       </c>
       <c r="D59">
-        <v>782.8546955449992</v>
+        <v>26.84191386414303</v>
       </c>
       <c r="E59">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1607,13 +1607,13 @@
         <v>62</v>
       </c>
       <c r="C60">
-        <v>629.0469875702842</v>
+        <v>20.85109348148711</v>
       </c>
       <c r="D60">
-        <v>-98.70689860116244</v>
+        <v>26.84191386414303</v>
       </c>
       <c r="E60">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1624,13 +1624,13 @@
         <v>63</v>
       </c>
       <c r="C61">
-        <v>121.4401489715508</v>
+        <v>5.008099806235412</v>
       </c>
       <c r="D61">
-        <v>693.95501150019</v>
+        <v>25.88179727645909</v>
       </c>
       <c r="E61">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1641,13 +1641,13 @@
         <v>64</v>
       </c>
       <c r="C62">
-        <v>676.5453941564485</v>
+        <v>22.03567261376899</v>
       </c>
       <c r="D62">
-        <v>302.79640170303</v>
+        <v>26.84191386414303</v>
       </c>
       <c r="E62">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1658,13 +1658,13 @@
         <v>65</v>
       </c>
       <c r="C63">
-        <v>617.7053963970295</v>
+        <v>18.02056924091808</v>
       </c>
       <c r="D63">
-        <v>-625.3162997247771</v>
+        <v>23.60596536491198</v>
       </c>
       <c r="E63">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1675,13 +1675,13 @@
         <v>66</v>
       </c>
       <c r="C64">
-        <v>883.1973229543075</v>
+        <v>31.15617461567899</v>
       </c>
       <c r="D64">
-        <v>782.8546955449992</v>
+        <v>23.60596536491198</v>
       </c>
       <c r="E64">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1692,13 +1692,13 @@
         <v>67</v>
       </c>
       <c r="C65">
-        <v>559.2840559774419</v>
+        <v>19.83468692796034</v>
       </c>
       <c r="D65">
-        <v>782.8546955449992</v>
+        <v>18.98318179458191</v>
       </c>
       <c r="E65">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1709,13 +1709,13 @@
         <v>68</v>
       </c>
       <c r="C66">
-        <v>111.5243250804958</v>
+        <v>5.07934215318241</v>
       </c>
       <c r="D66">
-        <v>-98.70689860116244</v>
+        <v>25.6558874911217</v>
       </c>
       <c r="E66">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1726,13 +1726,13 @@
         <v>69</v>
       </c>
       <c r="C67">
-        <v>514.8573984580061</v>
+        <v>17.9758596128096</v>
       </c>
       <c r="D67">
-        <v>345.4682500445383</v>
+        <v>6.89282476448787</v>
       </c>
       <c r="E67">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1743,13 +1743,13 @@
         <v>70</v>
       </c>
       <c r="C68">
-        <v>359.4085272164039</v>
+        <v>15.65287554016425</v>
       </c>
       <c r="D68">
-        <v>782.8546955449992</v>
+        <v>25.6558874911217</v>
       </c>
       <c r="E68">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1760,13 +1760,13 @@
         <v>71</v>
       </c>
       <c r="C69">
-        <v>232.3975842245915</v>
+        <v>5.13425757400509</v>
       </c>
       <c r="D69">
-        <v>345.4682500445383</v>
+        <v>-0.1480302118610083</v>
       </c>
       <c r="E69">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1777,13 +1777,13 @@
         <v>72</v>
       </c>
       <c r="C70">
-        <v>324.6560098759213</v>
+        <v>9.198077153413374</v>
       </c>
       <c r="D70">
-        <v>302.79640170303</v>
+        <v>15.42719443278954</v>
       </c>
       <c r="E70">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1794,13 +1794,13 @@
         <v>73</v>
       </c>
       <c r="C71">
-        <v>479.1504494261798</v>
+        <v>15.35195422906573</v>
       </c>
       <c r="D71">
-        <v>110.7730841662424</v>
+        <v>-13.68110211445366</v>
       </c>
       <c r="E71">
-        <v>415.8227848101265</v>
+        <v>13.86075949367088</v>
       </c>
     </row>
   </sheetData>

--- a/adresso_True.xlsx
+++ b/adresso_True.xlsx
@@ -621,10 +621,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>21.74894897842811</v>
+        <v>21.10970942524702</v>
       </c>
       <c r="D2">
-        <v>-3.77513732088922</v>
+        <v>27.16195272670435</v>
       </c>
       <c r="E2">
         <v>13.86075949367088</v>
@@ -638,10 +638,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>6.88474892716668</v>
+        <v>7.260469155662794</v>
       </c>
       <c r="D3">
-        <v>-13.68110211445366</v>
+        <v>5.399310072535078</v>
       </c>
       <c r="E3">
         <v>13.86075949367088</v>
@@ -655,10 +655,10 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>8.496141136153311</v>
+        <v>9.311889189710975</v>
       </c>
       <c r="D4">
-        <v>15.01688819873658</v>
+        <v>-5.695370496257093</v>
       </c>
       <c r="E4">
         <v>13.86075949367088</v>
@@ -672,10 +672,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>11.72301999172652</v>
+        <v>6.613251838097637</v>
       </c>
       <c r="D5">
-        <v>-5.108632581561353</v>
+        <v>4.403633611233215</v>
       </c>
       <c r="E5">
         <v>13.86075949367088</v>
@@ -689,10 +689,10 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>10.73092572769902</v>
+        <v>11.64802276436977</v>
       </c>
       <c r="D6">
-        <v>26.84191386414303</v>
+        <v>24.72356139290387</v>
       </c>
       <c r="E6">
         <v>13.86075949367088</v>
@@ -706,10 +706,10 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>16.74167174908338</v>
+        <v>19.51219579593694</v>
       </c>
       <c r="D7">
-        <v>25.88179727645909</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E7">
         <v>13.86075949367088</v>
@@ -723,10 +723,10 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>23.71535661676596</v>
+        <v>25.76238996211563</v>
       </c>
       <c r="D8">
-        <v>25.6558874911217</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E8">
         <v>13.86075949367088</v>
@@ -740,10 +740,10 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>3.757674662072313</v>
+        <v>9.086451623583581</v>
       </c>
       <c r="D9">
-        <v>15.01688819873658</v>
+        <v>9.483615556650877</v>
       </c>
       <c r="E9">
         <v>13.86075949367088</v>
@@ -757,10 +757,10 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>13.90776986019797</v>
+        <v>10.44952331264777</v>
       </c>
       <c r="D10">
-        <v>25.88179727645909</v>
+        <v>15.42719443278954</v>
       </c>
       <c r="E10">
         <v>13.86075949367088</v>
@@ -774,10 +774,10 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>8.10553408320712</v>
+        <v>6.261961468473112</v>
       </c>
       <c r="D11">
-        <v>25.6558874911217</v>
+        <v>4.403633611233215</v>
       </c>
       <c r="E11">
         <v>13.86075949367088</v>
@@ -791,10 +791,10 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>25.62854818771257</v>
+        <v>22.30342626608084</v>
       </c>
       <c r="D12">
-        <v>25.6558874911217</v>
+        <v>4.403633611233215</v>
       </c>
       <c r="E12">
         <v>13.86075949367088</v>
@@ -808,10 +808,10 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>13.96685457218259</v>
+        <v>13.17593892684127</v>
       </c>
       <c r="D13">
-        <v>23.60596536491198</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E13">
         <v>13.86075949367088</v>
@@ -825,10 +825,10 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>14.84666259159523</v>
+        <v>18.82467032643827</v>
       </c>
       <c r="D14">
-        <v>-3.77513732088922</v>
+        <v>24.17492334279876</v>
       </c>
       <c r="E14">
         <v>13.86075949367088</v>
@@ -842,10 +842,10 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>8.356825157121516</v>
+        <v>8.313818061878971</v>
       </c>
       <c r="D15">
-        <v>0.8476462494408527</v>
+        <v>26.45075525434588</v>
       </c>
       <c r="E15">
         <v>13.86075949367088</v>
@@ -859,10 +859,10 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>10.3891693243574</v>
+        <v>5.365250203375055</v>
       </c>
       <c r="D16">
-        <v>-0.1480302118610083</v>
+        <v>27.16195272670435</v>
       </c>
       <c r="E16">
         <v>13.86075949367088</v>
@@ -876,10 +876,10 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>19.00871421548122</v>
+        <v>18.67001617791565</v>
       </c>
       <c r="D17">
-        <v>15.42719443278954</v>
+        <v>9.483615556650877</v>
       </c>
       <c r="E17">
         <v>13.86075949367088</v>
@@ -893,10 +893,10 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>29.51672583901409</v>
+        <v>27.76755303489228</v>
       </c>
       <c r="D18">
-        <v>25.6558874911217</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E18">
         <v>13.86075949367088</v>
@@ -910,10 +910,10 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>18.36490609525237</v>
+        <v>22.2773576744223</v>
       </c>
       <c r="D19">
-        <v>26.84191386414303</v>
+        <v>4.403633611233215</v>
       </c>
       <c r="E19">
         <v>13.86075949367088</v>
@@ -927,10 +927,10 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <v>3.454357206791773</v>
+        <v>0.6078840484268683</v>
       </c>
       <c r="D20">
-        <v>25.88179727645909</v>
+        <v>9.483615556650877</v>
       </c>
       <c r="E20">
         <v>13.86075949367088</v>
@@ -944,10 +944,10 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>9.049686344191342</v>
+        <v>11.25681067091762</v>
       </c>
       <c r="D21">
-        <v>25.6558874911217</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E21">
         <v>13.86075949367088</v>
@@ -961,10 +961,10 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>12.54969832315814</v>
+        <v>16.52805274568007</v>
       </c>
       <c r="D22">
-        <v>18.98318179458191</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E22">
         <v>13.86075949367088</v>
@@ -978,10 +978,10 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>12.17186936446734</v>
+        <v>11.72147452444796</v>
       </c>
       <c r="D23">
-        <v>-0.1480302118610083</v>
+        <v>-5.695370496257093</v>
       </c>
       <c r="E23">
         <v>13.86075949367088</v>
@@ -995,10 +995,10 @@
         <v>26</v>
       </c>
       <c r="C24">
-        <v>9.758869362811708</v>
+        <v>11.83979668630083</v>
       </c>
       <c r="D24">
-        <v>0.8476462494408527</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E24">
         <v>13.86075949367088</v>
@@ -1012,10 +1012,10 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <v>11.31967851434878</v>
+        <v>19.25474854584252</v>
       </c>
       <c r="D25">
-        <v>15.42719443278954</v>
+        <v>24.17492334279876</v>
       </c>
       <c r="E25">
         <v>13.86075949367088</v>
@@ -1029,10 +1029,10 @@
         <v>28</v>
       </c>
       <c r="C26">
-        <v>6.208207504932364</v>
+        <v>-4.049610496432434</v>
       </c>
       <c r="D26">
-        <v>26.84191386414303</v>
+        <v>24.17492334279876</v>
       </c>
       <c r="E26">
         <v>13.86075949367088</v>
@@ -1046,10 +1046,10 @@
         <v>29</v>
       </c>
       <c r="C27">
-        <v>11.81615576348764</v>
+        <v>11.2375576107482</v>
       </c>
       <c r="D27">
-        <v>-13.68110211445366</v>
+        <v>-5.695370496257093</v>
       </c>
       <c r="E27">
         <v>13.86075949367088</v>
@@ -1063,10 +1063,10 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>22.17181962574078</v>
+        <v>19.77771263124366</v>
       </c>
       <c r="D28">
-        <v>18.98318179458191</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E28">
         <v>13.86075949367088</v>
@@ -1080,10 +1080,10 @@
         <v>31</v>
       </c>
       <c r="C29">
-        <v>13.97220526414957</v>
+        <v>-0.1353766311722315</v>
       </c>
       <c r="D29">
-        <v>15.01688819873658</v>
+        <v>24.72356139290387</v>
       </c>
       <c r="E29">
         <v>13.86075949367088</v>
@@ -1097,10 +1097,10 @@
         <v>32</v>
       </c>
       <c r="C30">
-        <v>21.1052214733927</v>
+        <v>19.78202328617233</v>
       </c>
       <c r="D30">
-        <v>26.84191386414303</v>
+        <v>-0.7169881897477848</v>
       </c>
       <c r="E30">
         <v>13.86075949367088</v>
@@ -1114,10 +1114,10 @@
         <v>33</v>
       </c>
       <c r="C31">
-        <v>17.79229482197492</v>
+        <v>18.1668335225175</v>
       </c>
       <c r="D31">
-        <v>25.6558874911217</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E31">
         <v>13.86075949367088</v>
@@ -1131,10 +1131,10 @@
         <v>34</v>
       </c>
       <c r="C32">
-        <v>13.44232306335053</v>
+        <v>17.61484144629625</v>
       </c>
       <c r="D32">
-        <v>-13.68110211445366</v>
+        <v>5.399310072535078</v>
       </c>
       <c r="E32">
         <v>13.86075949367088</v>
@@ -1148,10 +1148,10 @@
         <v>35</v>
       </c>
       <c r="C33">
-        <v>14.19438254442271</v>
+        <v>15.84445495235635</v>
       </c>
       <c r="D33">
-        <v>3.692436138874744</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E33">
         <v>13.86075949367088</v>
@@ -1165,10 +1165,10 @@
         <v>36</v>
       </c>
       <c r="C34">
-        <v>21.52717785835192</v>
+        <v>15.00669235228635</v>
       </c>
       <c r="D34">
-        <v>11.16000959863871</v>
+        <v>27.96204988310763</v>
       </c>
       <c r="E34">
         <v>13.86075949367088</v>
@@ -1182,10 +1182,10 @@
         <v>37</v>
       </c>
       <c r="C35">
-        <v>2.263660412514767</v>
+        <v>5.766805856266327</v>
       </c>
       <c r="D35">
-        <v>25.6558874911217</v>
+        <v>4.403633611233215</v>
       </c>
       <c r="E35">
         <v>13.86075949367088</v>
@@ -1199,10 +1199,10 @@
         <v>38</v>
       </c>
       <c r="C36">
-        <v>-5.249088338932767</v>
+        <v>3.196695007700554</v>
       </c>
       <c r="D36">
-        <v>-3.77513732088922</v>
+        <v>27.96204988310763</v>
       </c>
       <c r="E36">
         <v>13.86075949367088</v>
@@ -1216,10 +1216,10 @@
         <v>39</v>
       </c>
       <c r="C37">
-        <v>17.66838685446252</v>
+        <v>16.9929326819191</v>
       </c>
       <c r="D37">
-        <v>29.29554514377976</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E37">
         <v>13.86075949367088</v>
@@ -1233,10 +1233,10 @@
         <v>40</v>
       </c>
       <c r="C38">
-        <v>18.68971977923614</v>
+        <v>18.60471617358297</v>
       </c>
       <c r="D38">
-        <v>15.01688819873658</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E38">
         <v>13.86075949367088</v>
@@ -1250,10 +1250,10 @@
         <v>41</v>
       </c>
       <c r="C39">
-        <v>24.77211534334371</v>
+        <v>20.92062236317427</v>
       </c>
       <c r="D39">
-        <v>-3.77513732088922</v>
+        <v>27.96204988310763</v>
       </c>
       <c r="E39">
         <v>13.86075949367088</v>
@@ -1267,10 +1267,10 @@
         <v>42</v>
       </c>
       <c r="C40">
-        <v>16.37630118460945</v>
+        <v>18.38428260482402</v>
       </c>
       <c r="D40">
-        <v>-13.68110211445366</v>
+        <v>5.399310072535078</v>
       </c>
       <c r="E40">
         <v>13.86075949367088</v>
@@ -1284,10 +1284,10 @@
         <v>43</v>
       </c>
       <c r="C41">
-        <v>9.043968336000125</v>
+        <v>12.53405964636439</v>
       </c>
       <c r="D41">
-        <v>25.88179727645909</v>
+        <v>-0.7169881897477848</v>
       </c>
       <c r="E41">
         <v>13.86075949367088</v>
@@ -1301,10 +1301,10 @@
         <v>44</v>
       </c>
       <c r="C42">
-        <v>-8.444467130364918</v>
+        <v>3.051667341614824</v>
       </c>
       <c r="D42">
-        <v>11.16000959863871</v>
+        <v>-19.243682344686</v>
       </c>
       <c r="E42">
         <v>13.86075949367088</v>
@@ -1318,10 +1318,10 @@
         <v>45</v>
       </c>
       <c r="C43">
-        <v>10.98944998469823</v>
+        <v>12.56165061928224</v>
       </c>
       <c r="D43">
-        <v>-13.68110211445366</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E43">
         <v>13.86075949367088</v>
@@ -1335,10 +1335,10 @@
         <v>46</v>
       </c>
       <c r="C44">
-        <v>12.49865023138316</v>
+        <v>7.837438612959052</v>
       </c>
       <c r="D44">
-        <v>25.6558874911217</v>
+        <v>4.403633611233215</v>
       </c>
       <c r="E44">
         <v>13.86075949367088</v>
@@ -1352,10 +1352,10 @@
         <v>47</v>
       </c>
       <c r="C45">
-        <v>26.50660912891038</v>
+        <v>25.43694159156432</v>
       </c>
       <c r="D45">
-        <v>26.84191386414303</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E45">
         <v>13.86075949367088</v>
@@ -1369,10 +1369,10 @@
         <v>48</v>
       </c>
       <c r="C46">
-        <v>19.71777876282827</v>
+        <v>24.40886314776776</v>
       </c>
       <c r="D46">
-        <v>26.84191386414303</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E46">
         <v>13.86075949367088</v>
@@ -1386,10 +1386,10 @@
         <v>49</v>
       </c>
       <c r="C47">
-        <v>8.130234035396423</v>
+        <v>8.320508427516842</v>
       </c>
       <c r="D47">
-        <v>18.98318179458191</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E47">
         <v>13.86075949367088</v>
@@ -1403,10 +1403,10 @@
         <v>50</v>
       </c>
       <c r="C48">
-        <v>23.57967946256989</v>
+        <v>21.59537052046002</v>
       </c>
       <c r="D48">
-        <v>25.6558874911217</v>
+        <v>26.45075525434588</v>
       </c>
       <c r="E48">
         <v>13.86075949367088</v>
@@ -1420,10 +1420,10 @@
         <v>51</v>
       </c>
       <c r="C49">
-        <v>8.003251929130467</v>
+        <v>11.37522799443051</v>
       </c>
       <c r="D49">
-        <v>3.692436138874744</v>
+        <v>8.315219709204818</v>
       </c>
       <c r="E49">
         <v>13.86075949367088</v>
@@ -1437,10 +1437,10 @@
         <v>52</v>
       </c>
       <c r="C50">
-        <v>12.10102796341123</v>
+        <v>8.694890336529568</v>
       </c>
       <c r="D50">
-        <v>-0.1480302118610083</v>
+        <v>-0.7169881897477848</v>
       </c>
       <c r="E50">
         <v>13.86075949367088</v>
@@ -1454,10 +1454,10 @@
         <v>53</v>
       </c>
       <c r="C51">
-        <v>10.97147942111816</v>
+        <v>13.39865539785204</v>
       </c>
       <c r="D51">
-        <v>3.692436138874744</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E51">
         <v>13.86075949367088</v>
@@ -1471,10 +1471,10 @@
         <v>54</v>
       </c>
       <c r="C52">
-        <v>23.28900123720851</v>
+        <v>27.67402821011516</v>
       </c>
       <c r="D52">
-        <v>25.6558874911217</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E52">
         <v>13.86075949367088</v>
@@ -1488,10 +1488,10 @@
         <v>55</v>
       </c>
       <c r="C53">
-        <v>15.44476359993828</v>
+        <v>15.32137295751498</v>
       </c>
       <c r="D53">
-        <v>28.58434767142129</v>
+        <v>7.959620973025583</v>
       </c>
       <c r="E53">
         <v>13.86075949367088</v>
@@ -1505,10 +1505,10 @@
         <v>56</v>
       </c>
       <c r="C54">
-        <v>9.83494339539558</v>
+        <v>12.50771478567323</v>
       </c>
       <c r="D54">
-        <v>15.01688819873658</v>
+        <v>-20.84387665749257</v>
       </c>
       <c r="E54">
         <v>13.86075949367088</v>
@@ -1522,10 +1522,10 @@
         <v>57</v>
       </c>
       <c r="C55">
-        <v>11.10887884251262</v>
+        <v>7.236133158585693</v>
       </c>
       <c r="D55">
-        <v>3.692436138874744</v>
+        <v>9.483615556650877</v>
       </c>
       <c r="E55">
         <v>13.86075949367088</v>
@@ -1539,10 +1539,10 @@
         <v>58</v>
       </c>
       <c r="C56">
-        <v>10.8609135119548</v>
+        <v>7.435525154569879</v>
       </c>
       <c r="D56">
-        <v>29.29554514377976</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E56">
         <v>13.86075949367088</v>
@@ -1556,10 +1556,10 @@
         <v>59</v>
       </c>
       <c r="C57">
-        <v>11.48720712853293</v>
+        <v>12.62992726003063</v>
       </c>
       <c r="D57">
-        <v>15.42719443278954</v>
+        <v>-0.7169881897477848</v>
       </c>
       <c r="E57">
         <v>13.86075949367088</v>
@@ -1573,10 +1573,10 @@
         <v>60</v>
       </c>
       <c r="C58">
-        <v>13.42050761593462</v>
+        <v>14.09452420545744</v>
       </c>
       <c r="D58">
-        <v>26.84191386414303</v>
+        <v>-0.7169881897477848</v>
       </c>
       <c r="E58">
         <v>13.86075949367088</v>
@@ -1590,10 +1590,10 @@
         <v>61</v>
       </c>
       <c r="C59">
-        <v>4.050990610944965</v>
+        <v>1.581737916413386</v>
       </c>
       <c r="D59">
-        <v>26.84191386414303</v>
+        <v>-20.84387665749257</v>
       </c>
       <c r="E59">
         <v>13.86075949367088</v>
@@ -1607,10 +1607,10 @@
         <v>62</v>
       </c>
       <c r="C60">
-        <v>20.85109348148711</v>
+        <v>18.19733373748275</v>
       </c>
       <c r="D60">
-        <v>26.84191386414303</v>
+        <v>9.483615556650877</v>
       </c>
       <c r="E60">
         <v>13.86075949367088</v>
@@ -1624,10 +1624,10 @@
         <v>63</v>
       </c>
       <c r="C61">
-        <v>5.008099806235412</v>
+        <v>2.765856128489908</v>
       </c>
       <c r="D61">
-        <v>25.88179727645909</v>
+        <v>-5.695370496257093</v>
       </c>
       <c r="E61">
         <v>13.86075949367088</v>
@@ -1641,10 +1641,10 @@
         <v>64</v>
       </c>
       <c r="C62">
-        <v>22.03567261376899</v>
+        <v>23.90767830143933</v>
       </c>
       <c r="D62">
-        <v>26.84191386414303</v>
+        <v>-0.7169881897477848</v>
       </c>
       <c r="E62">
         <v>13.86075949367088</v>
@@ -1658,10 +1658,10 @@
         <v>65</v>
       </c>
       <c r="C63">
-        <v>18.02056924091808</v>
+        <v>13.17473837883697</v>
       </c>
       <c r="D63">
-        <v>23.60596536491198</v>
+        <v>4.403633611233215</v>
       </c>
       <c r="E63">
         <v>13.86075949367088</v>
@@ -1675,10 +1675,10 @@
         <v>66</v>
       </c>
       <c r="C64">
-        <v>31.15617461567899</v>
+        <v>28.05190938442572</v>
       </c>
       <c r="D64">
-        <v>23.60596536491198</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E64">
         <v>13.86075949367088</v>
@@ -1692,10 +1692,10 @@
         <v>67</v>
       </c>
       <c r="C65">
-        <v>19.83468692796034</v>
+        <v>17.16824304729226</v>
       </c>
       <c r="D65">
-        <v>18.98318179458191</v>
+        <v>-6.975525946502344</v>
       </c>
       <c r="E65">
         <v>13.86075949367088</v>
@@ -1709,10 +1709,10 @@
         <v>68</v>
       </c>
       <c r="C66">
-        <v>5.07934215318241</v>
+        <v>7.488102421358171</v>
       </c>
       <c r="D66">
-        <v>25.6558874911217</v>
+        <v>4.403633611233215</v>
       </c>
       <c r="E66">
         <v>13.86075949367088</v>
@@ -1726,10 +1726,10 @@
         <v>69</v>
       </c>
       <c r="C67">
-        <v>17.9758596128096</v>
+        <v>17.79841774047731</v>
       </c>
       <c r="D67">
-        <v>6.89282476448787</v>
+        <v>4.403633611233215</v>
       </c>
       <c r="E67">
         <v>13.86075949367088</v>
@@ -1743,10 +1743,10 @@
         <v>70</v>
       </c>
       <c r="C68">
-        <v>15.65287554016425</v>
+        <v>15.40022661391576</v>
       </c>
       <c r="D68">
-        <v>25.6558874911217</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E68">
         <v>13.86075949367088</v>
@@ -1760,10 +1760,10 @@
         <v>71</v>
       </c>
       <c r="C69">
-        <v>5.13425757400509</v>
+        <v>4.835877508617744</v>
       </c>
       <c r="D69">
-        <v>-0.1480302118610083</v>
+        <v>24.80611109951691</v>
       </c>
       <c r="E69">
         <v>13.86075949367088</v>
@@ -1777,10 +1777,10 @@
         <v>72</v>
       </c>
       <c r="C70">
-        <v>9.198077153413374</v>
+        <v>11.06869596428412</v>
       </c>
       <c r="D70">
-        <v>15.42719443278954</v>
+        <v>7.959620973025583</v>
       </c>
       <c r="E70">
         <v>13.86075949367088</v>
@@ -1794,10 +1794,10 @@
         <v>73</v>
       </c>
       <c r="C71">
-        <v>15.35195422906573</v>
+        <v>9.350659144040552</v>
       </c>
       <c r="D71">
-        <v>-13.68110211445366</v>
+        <v>5.399310072535078</v>
       </c>
       <c r="E71">
         <v>13.86075949367088</v>

--- a/adresso_True.xlsx
+++ b/adresso_True.xlsx
@@ -621,10 +621,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>21.10970942524702</v>
+        <v>20.15606614786673</v>
       </c>
       <c r="D2">
-        <v>27.16195272670435</v>
+        <v>27.44024738980114</v>
       </c>
       <c r="E2">
         <v>13.86075949367088</v>
@@ -638,10 +638,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>7.260469155662794</v>
+        <v>5.729349240451754</v>
       </c>
       <c r="D3">
-        <v>5.399310072535078</v>
+        <v>-13.68110211445366</v>
       </c>
       <c r="E3">
         <v>13.86075949367088</v>
@@ -655,10 +655,10 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>9.311889189710975</v>
+        <v>9.221907562496275</v>
       </c>
       <c r="D4">
-        <v>-5.695370496257093</v>
+        <v>17.9163855860442</v>
       </c>
       <c r="E4">
         <v>13.86075949367088</v>
@@ -672,10 +672,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>6.613251838097637</v>
+        <v>10.31802163700325</v>
       </c>
       <c r="D5">
-        <v>4.403633611233215</v>
+        <v>27.44024738980114</v>
       </c>
       <c r="E5">
         <v>13.86075949367088</v>
@@ -689,10 +689,10 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>11.64802276436977</v>
+        <v>13.23012083470808</v>
       </c>
       <c r="D6">
-        <v>24.72356139290387</v>
+        <v>25.52072779049249</v>
       </c>
       <c r="E6">
         <v>13.86075949367088</v>
@@ -706,10 +706,10 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>19.51219579593694</v>
+        <v>25.08563858878986</v>
       </c>
       <c r="D7">
-        <v>24.80611109951691</v>
+        <v>25.52072779049249</v>
       </c>
       <c r="E7">
         <v>13.86075949367088</v>
@@ -723,10 +723,10 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>25.76238996211563</v>
+        <v>27.0807001064217</v>
       </c>
       <c r="D8">
-        <v>24.80611109951691</v>
+        <v>25.52072779049249</v>
       </c>
       <c r="E8">
         <v>13.86075949367088</v>
@@ -740,10 +740,10 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>9.086451623583581</v>
+        <v>5.548139904173533</v>
       </c>
       <c r="D9">
-        <v>9.483615556650877</v>
+        <v>18.41422381669513</v>
       </c>
       <c r="E9">
         <v>13.86075949367088</v>
@@ -757,10 +757,10 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>10.44952331264777</v>
+        <v>13.2657464290145</v>
       </c>
       <c r="D10">
-        <v>15.42719443278954</v>
+        <v>27.44024738980114</v>
       </c>
       <c r="E10">
         <v>13.86075949367088</v>
@@ -774,10 +774,10 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>6.261961468473112</v>
+        <v>1.924830702368809</v>
       </c>
       <c r="D11">
-        <v>4.403633611233215</v>
+        <v>-8.397920891219291</v>
       </c>
       <c r="E11">
         <v>13.86075949367088</v>
@@ -791,10 +791,10 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>22.30342626608084</v>
+        <v>24.14781426737251</v>
       </c>
       <c r="D12">
-        <v>4.403633611233215</v>
+        <v>17.9163855860442</v>
       </c>
       <c r="E12">
         <v>13.86075949367088</v>
@@ -808,10 +808,10 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>13.17593892684127</v>
+        <v>17.85447530737527</v>
       </c>
       <c r="D13">
-        <v>24.80611109951691</v>
+        <v>27.44024738980114</v>
       </c>
       <c r="E13">
         <v>13.86075949367088</v>
@@ -825,10 +825,10 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>18.82467032643827</v>
+        <v>18.28988243768412</v>
       </c>
       <c r="D14">
-        <v>24.17492334279876</v>
+        <v>3.425737086740317</v>
       </c>
       <c r="E14">
         <v>13.86075949367088</v>
@@ -842,10 +842,10 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>8.313818061878971</v>
+        <v>7.660259136884736</v>
       </c>
       <c r="D15">
-        <v>26.45075525434588</v>
+        <v>10.093213390101</v>
       </c>
       <c r="E15">
         <v>13.86075949367088</v>
@@ -859,10 +859,10 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>5.365250203375055</v>
+        <v>2.727388556294992</v>
       </c>
       <c r="D16">
-        <v>27.16195272670435</v>
+        <v>27.44024738980114</v>
       </c>
       <c r="E16">
         <v>13.86075949367088</v>
@@ -876,10 +876,10 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>18.67001617791565</v>
+        <v>18.28639308890853</v>
       </c>
       <c r="D17">
-        <v>9.483615556650877</v>
+        <v>-1.048880343515071</v>
       </c>
       <c r="E17">
         <v>13.86075949367088</v>
@@ -893,10 +893,10 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>27.76755303489228</v>
+        <v>31.0190888792931</v>
       </c>
       <c r="D18">
-        <v>24.80611109951691</v>
+        <v>27.44024738980114</v>
       </c>
       <c r="E18">
         <v>13.86075949367088</v>
@@ -910,10 +910,10 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>22.2773576744223</v>
+        <v>17.37786948247047</v>
       </c>
       <c r="D19">
-        <v>4.403633611233215</v>
+        <v>-1.048880343515071</v>
       </c>
       <c r="E19">
         <v>13.86075949367088</v>
@@ -927,10 +927,10 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <v>0.6078840484268683</v>
+        <v>0.7978512163039952</v>
       </c>
       <c r="D20">
-        <v>9.483615556650877</v>
+        <v>3.425737086740317</v>
       </c>
       <c r="E20">
         <v>13.86075949367088</v>
@@ -944,10 +944,10 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>11.25681067091762</v>
+        <v>14.48991418752395</v>
       </c>
       <c r="D21">
-        <v>24.80611109951691</v>
+        <v>27.44024738980114</v>
       </c>
       <c r="E21">
         <v>13.86075949367088</v>
@@ -961,10 +961,10 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>16.52805274568007</v>
+        <v>10.52186465994792</v>
       </c>
       <c r="D22">
-        <v>24.80611109951691</v>
+        <v>-4.841933529426931</v>
       </c>
       <c r="E22">
         <v>13.86075949367088</v>
@@ -978,10 +978,10 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>11.72147452444796</v>
+        <v>13.68617189995993</v>
       </c>
       <c r="D23">
-        <v>-5.695370496257093</v>
+        <v>17.9163855860442</v>
       </c>
       <c r="E23">
         <v>13.86075949367088</v>
@@ -995,10 +995,10 @@
         <v>26</v>
       </c>
       <c r="C24">
-        <v>11.83979668630083</v>
+        <v>9.344775123345933</v>
       </c>
       <c r="D24">
-        <v>24.80611109951691</v>
+        <v>27.3559156737112</v>
       </c>
       <c r="E24">
         <v>13.86075949367088</v>
@@ -1012,10 +1012,10 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <v>19.25474854584252</v>
+        <v>13.76380588216999</v>
       </c>
       <c r="D25">
-        <v>24.17492334279876</v>
+        <v>25.52072779049249</v>
       </c>
       <c r="E25">
         <v>13.86075949367088</v>
@@ -1029,10 +1029,10 @@
         <v>28</v>
       </c>
       <c r="C26">
-        <v>-4.049610496432434</v>
+        <v>-1.246256636715705</v>
       </c>
       <c r="D26">
-        <v>24.17492334279876</v>
+        <v>18.41422381669513</v>
       </c>
       <c r="E26">
         <v>13.86075949367088</v>
@@ -1046,10 +1046,10 @@
         <v>29</v>
       </c>
       <c r="C27">
-        <v>11.2375576107482</v>
+        <v>6.083905252306415</v>
       </c>
       <c r="D27">
-        <v>-5.695370496257093</v>
+        <v>-13.68110211445366</v>
       </c>
       <c r="E27">
         <v>13.86075949367088</v>
@@ -1063,10 +1063,10 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>19.77771263124366</v>
+        <v>24.37572819891603</v>
       </c>
       <c r="D28">
-        <v>24.80611109951691</v>
+        <v>25.52072779049249</v>
       </c>
       <c r="E28">
         <v>13.86075949367088</v>
@@ -1080,10 +1080,10 @@
         <v>31</v>
       </c>
       <c r="C29">
-        <v>-0.1353766311722315</v>
+        <v>-1.150774104645977</v>
       </c>
       <c r="D29">
-        <v>24.72356139290387</v>
+        <v>17.9163855860442</v>
       </c>
       <c r="E29">
         <v>13.86075949367088</v>
@@ -1097,10 +1097,10 @@
         <v>32</v>
       </c>
       <c r="C30">
-        <v>19.78202328617233</v>
+        <v>20.35692185900867</v>
       </c>
       <c r="D30">
-        <v>-0.7169881897477848</v>
+        <v>27.87315019906282</v>
       </c>
       <c r="E30">
         <v>13.86075949367088</v>
@@ -1114,10 +1114,10 @@
         <v>33</v>
       </c>
       <c r="C31">
-        <v>18.1668335225175</v>
+        <v>18.35373988257255</v>
       </c>
       <c r="D31">
-        <v>24.80611109951691</v>
+        <v>25.12995994853728</v>
       </c>
       <c r="E31">
         <v>13.86075949367088</v>
@@ -1131,10 +1131,10 @@
         <v>34</v>
       </c>
       <c r="C32">
-        <v>17.61484144629625</v>
+        <v>14.89963139304884</v>
       </c>
       <c r="D32">
-        <v>5.399310072535078</v>
+        <v>-13.68110211445366</v>
       </c>
       <c r="E32">
         <v>13.86075949367088</v>
@@ -1148,10 +1148,10 @@
         <v>35</v>
       </c>
       <c r="C33">
-        <v>15.84445495235635</v>
+        <v>12.04648298595093</v>
       </c>
       <c r="D33">
-        <v>24.80611109951691</v>
+        <v>27.44024738980114</v>
       </c>
       <c r="E33">
         <v>13.86075949367088</v>
@@ -1165,10 +1165,10 @@
         <v>36</v>
       </c>
       <c r="C34">
-        <v>15.00669235228635</v>
+        <v>21.88611665990212</v>
       </c>
       <c r="D34">
-        <v>27.96204988310763</v>
+        <v>11.16000959863871</v>
       </c>
       <c r="E34">
         <v>13.86075949367088</v>
@@ -1182,10 +1182,10 @@
         <v>37</v>
       </c>
       <c r="C35">
-        <v>5.766805856266327</v>
+        <v>3.680238644126698</v>
       </c>
       <c r="D35">
-        <v>4.403633611233215</v>
+        <v>27.44024738980114</v>
       </c>
       <c r="E35">
         <v>13.86075949367088</v>
@@ -1199,10 +1199,10 @@
         <v>38</v>
       </c>
       <c r="C36">
-        <v>3.196695007700554</v>
+        <v>4.296315478134008</v>
       </c>
       <c r="D36">
-        <v>27.96204988310763</v>
+        <v>27.3559156737112</v>
       </c>
       <c r="E36">
         <v>13.86075949367088</v>
@@ -1216,10 +1216,10 @@
         <v>39</v>
       </c>
       <c r="C37">
-        <v>16.9929326819191</v>
+        <v>20.45462534255192</v>
       </c>
       <c r="D37">
-        <v>24.80611109951691</v>
+        <v>25.52072779049249</v>
       </c>
       <c r="E37">
         <v>13.86075949367088</v>
@@ -1233,10 +1233,10 @@
         <v>40</v>
       </c>
       <c r="C38">
-        <v>18.60471617358297</v>
+        <v>17.76422876439544</v>
       </c>
       <c r="D38">
-        <v>24.80611109951691</v>
+        <v>4.403633611233219</v>
       </c>
       <c r="E38">
         <v>13.86075949367088</v>
@@ -1250,10 +1250,10 @@
         <v>41</v>
       </c>
       <c r="C39">
-        <v>20.92062236317427</v>
+        <v>26.7564464850206</v>
       </c>
       <c r="D39">
-        <v>27.96204988310763</v>
+        <v>18.41422381669513</v>
       </c>
       <c r="E39">
         <v>13.86075949367088</v>
@@ -1267,10 +1267,10 @@
         <v>42</v>
       </c>
       <c r="C40">
-        <v>18.38428260482402</v>
+        <v>16.25306253062316</v>
       </c>
       <c r="D40">
-        <v>5.399310072535078</v>
+        <v>-13.68110211445366</v>
       </c>
       <c r="E40">
         <v>13.86075949367088</v>
@@ -1284,10 +1284,10 @@
         <v>43</v>
       </c>
       <c r="C41">
-        <v>12.53405964636439</v>
+        <v>9.825324596767116</v>
       </c>
       <c r="D41">
-        <v>-0.7169881897477848</v>
+        <v>6.892824764487871</v>
       </c>
       <c r="E41">
         <v>13.86075949367088</v>
@@ -1301,10 +1301,10 @@
         <v>44</v>
       </c>
       <c r="C42">
-        <v>3.051667341614824</v>
+        <v>-1.657541134027422</v>
       </c>
       <c r="D42">
-        <v>-19.243682344686</v>
+        <v>11.16000959863871</v>
       </c>
       <c r="E42">
         <v>13.86075949367088</v>
@@ -1318,10 +1318,10 @@
         <v>45</v>
       </c>
       <c r="C43">
-        <v>12.56165061928224</v>
+        <v>9.642005052036469</v>
       </c>
       <c r="D43">
-        <v>24.80611109951691</v>
+        <v>-13.68110211445366</v>
       </c>
       <c r="E43">
         <v>13.86075949367088</v>
@@ -1335,10 +1335,10 @@
         <v>46</v>
       </c>
       <c r="C44">
-        <v>7.837438612959052</v>
+        <v>4.845308318397485</v>
       </c>
       <c r="D44">
-        <v>4.403633611233215</v>
+        <v>27.3559156737112</v>
       </c>
       <c r="E44">
         <v>13.86075949367088</v>
@@ -1352,10 +1352,10 @@
         <v>47</v>
       </c>
       <c r="C45">
-        <v>25.43694159156432</v>
+        <v>17.86066991663263</v>
       </c>
       <c r="D45">
-        <v>24.80611109951691</v>
+        <v>25.12995994853728</v>
       </c>
       <c r="E45">
         <v>13.86075949367088</v>
@@ -1369,10 +1369,10 @@
         <v>48</v>
       </c>
       <c r="C46">
-        <v>24.40886314776776</v>
+        <v>23.41345642672799</v>
       </c>
       <c r="D46">
-        <v>24.80611109951691</v>
+        <v>25.12995994853728</v>
       </c>
       <c r="E46">
         <v>13.86075949367088</v>
@@ -1386,10 +1386,10 @@
         <v>49</v>
       </c>
       <c r="C47">
-        <v>8.320508427516842</v>
+        <v>10.3478375302366</v>
       </c>
       <c r="D47">
-        <v>24.80611109951691</v>
+        <v>4.403633611233219</v>
       </c>
       <c r="E47">
         <v>13.86075949367088</v>
@@ -1403,10 +1403,10 @@
         <v>50</v>
       </c>
       <c r="C48">
-        <v>21.59537052046002</v>
+        <v>22.75022839357677</v>
       </c>
       <c r="D48">
-        <v>26.45075525434588</v>
+        <v>6.892824764487871</v>
       </c>
       <c r="E48">
         <v>13.86075949367088</v>
@@ -1420,10 +1420,10 @@
         <v>51</v>
       </c>
       <c r="C49">
-        <v>11.37522799443051</v>
+        <v>9.396541502505061</v>
       </c>
       <c r="D49">
-        <v>8.315219709204818</v>
+        <v>25.12995994853728</v>
       </c>
       <c r="E49">
         <v>13.86075949367088</v>
@@ -1437,10 +1437,10 @@
         <v>52</v>
       </c>
       <c r="C50">
-        <v>8.694890336529568</v>
+        <v>12.46125925313334</v>
       </c>
       <c r="D50">
-        <v>-0.7169881897477848</v>
+        <v>27.87315019906282</v>
       </c>
       <c r="E50">
         <v>13.86075949367088</v>
@@ -1454,10 +1454,10 @@
         <v>53</v>
       </c>
       <c r="C51">
-        <v>13.39865539785204</v>
+        <v>16.73578241057972</v>
       </c>
       <c r="D51">
-        <v>24.80611109951691</v>
+        <v>10.093213390101</v>
       </c>
       <c r="E51">
         <v>13.86075949367088</v>
@@ -1471,10 +1471,10 @@
         <v>54</v>
       </c>
       <c r="C52">
-        <v>27.67402821011516</v>
+        <v>27.54986746153618</v>
       </c>
       <c r="D52">
-        <v>24.80611109951691</v>
+        <v>25.12995994853728</v>
       </c>
       <c r="E52">
         <v>13.86075949367088</v>
@@ -1488,10 +1488,10 @@
         <v>55</v>
       </c>
       <c r="C53">
-        <v>15.32137295751498</v>
+        <v>18.7889960928728</v>
       </c>
       <c r="D53">
-        <v>7.959620973025583</v>
+        <v>27.87315019906282</v>
       </c>
       <c r="E53">
         <v>13.86075949367088</v>
@@ -1505,10 +1505,10 @@
         <v>56</v>
       </c>
       <c r="C54">
-        <v>12.50771478567323</v>
+        <v>12.96428254089902</v>
       </c>
       <c r="D54">
-        <v>-20.84387665749257</v>
+        <v>4.119154622289828</v>
       </c>
       <c r="E54">
         <v>13.86075949367088</v>
@@ -1522,10 +1522,10 @@
         <v>57</v>
       </c>
       <c r="C55">
-        <v>7.236133158585693</v>
+        <v>9.537938388553117</v>
       </c>
       <c r="D55">
-        <v>9.483615556650877</v>
+        <v>18.41422381669513</v>
       </c>
       <c r="E55">
         <v>13.86075949367088</v>
@@ -1539,10 +1539,10 @@
         <v>58</v>
       </c>
       <c r="C56">
-        <v>7.435525154569879</v>
+        <v>13.57465024080609</v>
       </c>
       <c r="D56">
-        <v>24.80611109951691</v>
+        <v>25.12995994853728</v>
       </c>
       <c r="E56">
         <v>13.86075949367088</v>
@@ -1556,10 +1556,10 @@
         <v>59</v>
       </c>
       <c r="C57">
-        <v>12.62992726003063</v>
+        <v>15.19501733177354</v>
       </c>
       <c r="D57">
-        <v>-0.7169881897477848</v>
+        <v>25.52072779049249</v>
       </c>
       <c r="E57">
         <v>13.86075949367088</v>
@@ -1573,10 +1573,10 @@
         <v>60</v>
       </c>
       <c r="C58">
-        <v>14.09452420545744</v>
+        <v>16.19428273241087</v>
       </c>
       <c r="D58">
-        <v>-0.7169881897477848</v>
+        <v>17.9163855860442</v>
       </c>
       <c r="E58">
         <v>13.86075949367088</v>
@@ -1590,10 +1590,10 @@
         <v>61</v>
       </c>
       <c r="C59">
-        <v>1.581737916413386</v>
+        <v>2.477106155117059</v>
       </c>
       <c r="D59">
-        <v>-20.84387665749257</v>
+        <v>25.12995994853728</v>
       </c>
       <c r="E59">
         <v>13.86075949367088</v>
@@ -1607,10 +1607,10 @@
         <v>62</v>
       </c>
       <c r="C60">
-        <v>18.19733373748275</v>
+        <v>19.02399474312852</v>
       </c>
       <c r="D60">
-        <v>9.483615556650877</v>
+        <v>27.44024738980114</v>
       </c>
       <c r="E60">
         <v>13.86075949367088</v>
@@ -1624,10 +1624,10 @@
         <v>63</v>
       </c>
       <c r="C61">
-        <v>2.765856128489908</v>
+        <v>4.03272473272082</v>
       </c>
       <c r="D61">
-        <v>-5.695370496257093</v>
+        <v>25.52072779049249</v>
       </c>
       <c r="E61">
         <v>13.86075949367088</v>
@@ -1641,10 +1641,10 @@
         <v>64</v>
       </c>
       <c r="C62">
-        <v>23.90767830143933</v>
+        <v>21.50706544692301</v>
       </c>
       <c r="D62">
-        <v>-0.7169881897477848</v>
+        <v>4.119154622289828</v>
       </c>
       <c r="E62">
         <v>13.86075949367088</v>
@@ -1658,10 +1658,10 @@
         <v>65</v>
       </c>
       <c r="C63">
-        <v>13.17473837883697</v>
+        <v>12.95608653879474</v>
       </c>
       <c r="D63">
-        <v>4.403633611233215</v>
+        <v>6.892824764487871</v>
       </c>
       <c r="E63">
         <v>13.86075949367088</v>
@@ -1675,10 +1675,10 @@
         <v>66</v>
       </c>
       <c r="C64">
-        <v>28.05190938442572</v>
+        <v>30.98253463701386</v>
       </c>
       <c r="D64">
-        <v>24.80611109951691</v>
+        <v>18.41422381669513</v>
       </c>
       <c r="E64">
         <v>13.86075949367088</v>
@@ -1692,10 +1692,10 @@
         <v>67</v>
       </c>
       <c r="C65">
-        <v>17.16824304729226</v>
+        <v>17.19023444948101</v>
       </c>
       <c r="D65">
-        <v>-6.975525946502344</v>
+        <v>25.12995994853728</v>
       </c>
       <c r="E65">
         <v>13.86075949367088</v>
@@ -1709,10 +1709,10 @@
         <v>68</v>
       </c>
       <c r="C66">
-        <v>7.488102421358171</v>
+        <v>4.760892568401545</v>
       </c>
       <c r="D66">
-        <v>4.403633611233215</v>
+        <v>-1.048880343515071</v>
       </c>
       <c r="E66">
         <v>13.86075949367088</v>
@@ -1726,10 +1726,10 @@
         <v>69</v>
       </c>
       <c r="C67">
-        <v>17.79841774047731</v>
+        <v>18.65954780050829</v>
       </c>
       <c r="D67">
-        <v>4.403633611233215</v>
+        <v>4.403633611233219</v>
       </c>
       <c r="E67">
         <v>13.86075949367088</v>
@@ -1743,10 +1743,10 @@
         <v>70</v>
       </c>
       <c r="C68">
-        <v>15.40022661391576</v>
+        <v>15.4218006456552</v>
       </c>
       <c r="D68">
-        <v>24.80611109951691</v>
+        <v>27.44024738980114</v>
       </c>
       <c r="E68">
         <v>13.86075949367088</v>
@@ -1760,10 +1760,10 @@
         <v>71</v>
       </c>
       <c r="C69">
-        <v>4.835877508617744</v>
+        <v>8.650207077986718</v>
       </c>
       <c r="D69">
-        <v>24.80611109951691</v>
+        <v>27.44024738980114</v>
       </c>
       <c r="E69">
         <v>13.86075949367088</v>
@@ -1777,10 +1777,10 @@
         <v>72</v>
       </c>
       <c r="C70">
-        <v>11.06869596428412</v>
+        <v>10.58344471736573</v>
       </c>
       <c r="D70">
-        <v>7.959620973025583</v>
+        <v>4.403633611233219</v>
       </c>
       <c r="E70">
         <v>13.86075949367088</v>
@@ -1794,10 +1794,10 @@
         <v>73</v>
       </c>
       <c r="C71">
-        <v>9.350659144040552</v>
+        <v>18.6770709081665</v>
       </c>
       <c r="D71">
-        <v>5.399310072535078</v>
+        <v>-13.68110211445366</v>
       </c>
       <c r="E71">
         <v>13.86075949367088</v>
